--- a/datasheet_exer.xlsx
+++ b/datasheet_exer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjval Dahiya\Desktop\minor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF09A7F-2566-459D-BCCE-280FD44F68A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC8219-66B3-4753-94C0-035CF3E714F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Chair,Bench</t>
   </si>
   <si>
-    <t>Sit on the edge of the chair and grip the edge next to your hips. Your fingers should be pointed at your feet. Your legs are extended and your feet should be about hip-width apart with the heels touching the ground. Look straight ahead with your chin up.$Press into your palms to lift your body and slide forward just far enough that your behind clears the edge of the chair.$lower yourself until your elbows are bent between 45 and 90 degrees.$Slowly push yourself back up to the start position and repeat. Control the movement throughout the range of motion.$Begin with 3 sets of 10 repetitions and increase your sets and reps over several weeks as you build muscle and strength in your triceps.$</t>
-  </si>
-  <si>
     <t>SQUAT</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Dumbbell</t>
   </si>
   <si>
-    <t>Stand with your feet slightly wider than hip-distance apart, your toes angled slightly outward.$Hold a kettlebell in both hands at your chest, gripping the handles as though you were cupping a goblet—one hand on either side of the handles. Bend your elbows so the goblet is positioned right at the center of your chest.$Warm-up by using a lighter (or no) kettlebell to get a sense of the movement. Then, progress to a heavier weight for your full set.$Engage your core and look straight ahead—you want to keep your back neutrally aligned and your eyes facing straight ahead throughout the squat.$press your hips back and begin bending your knees to perform the squat. Inhale as you perform this downward phase.$Keep the kettlebell close to your body during the movement.$Focus on keeping your chest tall as you continue pressing your hips back and lowering down. The goal is to get your hips below parallel with your knees.$Make sure your weight remains evenly distributed across your feet, or slightly more weighted towards ur heels—you shouldn't come up on your toes as you squat.$Check your position at the bottom of the squat—your elbows should be positioned on the inside of either knee at the lowest point of the squat. This helps ensure that your knees remain aligned with your toes as you move into the deep squat position.$Press through your heels and reverse the motion to return to the starting position. Exhale as you rise, and be sure to press your hips forward at the top of the squat to more fully engage your glutes.$Complete a full set and carefully rack the kettlebell. Always avoid dropping weights from a height. Repeat through as many sets as desired.$</t>
-  </si>
-  <si>
     <t>LEG PRESS</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>Leg Press Machine</t>
   </si>
   <si>
-    <t>Brace your abdominal muscles and push the platform away with your heels and forefoot. Your heels should remain flat on the footplate. The front of your foot or toes should never be used exclusively to move the pad forward.$While exhaling, extend your legs and keep your head and back flat against the seat pad. Extend with slow control rather than with an explosive movement.$Pause at the top of the movement. Do not lock out your knees and ensure that they are not bowing out or in.$While inhaling, return the footplate to the starting position by gradually bending the knees. Keep the feet and back flat throughout$If you have never done leg presses before, start modestly with three sets of 10 leg presses. You can advance from there as you build strength.$</t>
-  </si>
-  <si>
     <t xml:space="preserve">GOOD MORNING </t>
   </si>
   <si>
@@ -70,9 +61,6 @@
     <t>Barbell</t>
   </si>
   <si>
-    <t>Stand with your feet shoulder-width apart.$Place a barbell of appropriate weight on your shoulders. If you're just starting with the exercise, begin with light weight. The bar of the barbell should rest on your trapezius muscles of the upper back near your shoulders.$Brace your abdominals and take a good breath in.$Exhale as you hinge at the hips. It should feel as if you are sending your hips backward (as if trying to shut a car door with your butt) or pretend that someone has a rope around your hips and is pulling them backward.$Inhale and focus on maintaining a straight back. Keep the arch of your lower back tight as you would when lifting from the floor.$Exhale. Make sure your head and chest are up and forward. Check that you aren't curling your back forward.$Inhale smoothly as you return to the starting position.$</t>
-  </si>
-  <si>
     <t>PULL UPS</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>Bar</t>
   </si>
   <si>
-    <t>Exhale while pulling yourself up so your chin is level with the bar. Pause at the top.$Lower yourself (inhaling as you go down) until your elbows are straight.$Repeat the movement without touching the floor.$Complete the number of repetitions your workout requires.$</t>
-  </si>
-  <si>
     <t>LAT PULLDOWN</t>
   </si>
   <si>
@@ -94,42 +79,27 @@
     <t>Cable Machine</t>
   </si>
   <si>
-    <t>Grasp the bar with a wide grip with an overhand, knuckles up grip. Other positions and grips are possible but start with this standard position.$Pull the bar down until it's approximately level with the chin. Exhale on down motion. While shifting just slightly backward is OK, aim to keep your upper torso stationary. Keep your feet flat on the floor and engage your abs as you pull. The bottom of the motion should be where your elbows can't move downward any more without moving backward. Be sure to stop at that point and do not go lower.$Squeeze the shoulder blades together while maintaining square shoulders.$From the bottom position with the bar close to your chin, slowly return the bar to the starting position while controlling its gradual ascent. Don't let it crash into the weight plates.$Continue until you complete eight to 12 repetitions in a set. Rest, then continue to complete your program of sets.$</t>
-  </si>
-  <si>
     <t>REVERSE FLY</t>
   </si>
   <si>
-    <t>Stand with feet shoulder-width apart holding dumbbells at your sides.$Press the hips back in a hinge motion bringing your chest forward almost parallel to the floor.$Allow the weights to hang straight down, palms facing each other.$Maintain a tight core, straight back, and slight knee bend.$Exhale and raise both arms out to your side, squeezing the shoulder blades together.$Keep a soft bend in your elbows as you pull your shoulder blades toward the spine.$Inhale as you lower the weight back to start position.$Avoid hunching your shoulders up during the movement.$Keep your chin tucked to maintain a neutral spine during the exercise.$Focus on feeling the shoulders blades coming together with proper breathing from start to finish.Repeat the exercise for 8 to 12 repetitions, or as determined per set.$</t>
-  </si>
-  <si>
     <t>SEATED ROW</t>
   </si>
   <si>
     <t>Back</t>
   </si>
   <si>
-    <t>Pull the handle and weight back toward the lower abdomen while trying not to use the momentum of the row too much by moving the torso backward with the arms.$Target the middle to upper back by keeping your back straight and squeezing your shoulder blades together as you row, chest out.$Return the handle forward under tension to full stretch, remembering to keep that back straight even though flexed at the hips. Repeat the exercise for the desired number of repetitions.$</t>
-  </si>
-  <si>
     <t>HAMMER CURL</t>
   </si>
   <si>
     <t>Arm</t>
   </si>
   <si>
-    <t>Place one dumbbell in each hand. Rotate the hands so that the palms face the thighs. By doing so, you'll notice that the thumbs face forward.$Keeping the elbows in a fixed position, flex (bend) at the elbow so the lower arms lift up and toward the shoulders. Keep the shoulders relaxed as you work. Keep your grip firms and wrists in line with the forearm.$At the top of the movement, thumbs will be close to the shoulders, palms facing in toward the midline of the body.$Lower the weights to the starting position.$</t>
-  </si>
-  <si>
     <t>HIP EXTENSION</t>
   </si>
   <si>
     <t>Glutes</t>
   </si>
   <si>
-    <t>Set up in quadruped position on your yoga mat. Check your hand and knee placement. Your hands should be positioned directly under your shoulders and your knees directly under your hips. Flex your ankles, tucking your toes into the floor. Engage your core, drawing your belly button toward your spine, and make sure your back is straight and flat from the base of your pelvis to the top of your head.$Shift your weight slightly to the right side, keeping your torso completely stable as you do so—your hips and shoulders shouldn't twist or rotate as you shift.$Press your left foot up toward the ceiling, keeping your knee bent at a 90-degree angle as you fully extend your left hip. Exhale as you perform the hip extension. Again, make sure your torso remains flat and stable—don't allow your left hip to rotate out or up as your hip extends.$Slowly lower your left knee back toward the floor, stopping just before it touches down. Inhale as you lower your knee down.$Continue a full round of repetitions to one side before Switching to the opposite side. When you've finished a set, simply sit back on your heels and rise to stand.$</t>
-  </si>
-  <si>
     <t>PUSH PRESS</t>
   </si>
   <si>
@@ -139,63 +109,39 @@
     <t>Barbell, Plates</t>
   </si>
   <si>
-    <t>Stand with feet hip-distance apart. Place the barbell across your chest at shoulder height so that it rests at your collar bone. Hands should be placed on the bar slightly wider than shoulder-distance apart with palms facing forward. Elbows are relaxed below and slightly in front of the bar. Legs should be straight but not locked. Knees and ankles should be aligned directly beneath the hips.$Keeping the bar at your chest and keeping the torso strong, bend the knees into a slight dip. Then push through the feet and start to straighten the legs. This movement is done quickly to gain momentum.$Once you reach full hip extension, press the bar up. You'll have to move the head slightly back to make room for the bar to pass.$Extend the arms fully overhead, keeping the torso properly aligned (it should not feel like the chest is extended forward or the hips are arching back). Once the bar has moved up past your head, move it back through its original position and slightly forward.$Return the bar to the starting position to begin another repetition.$</t>
-  </si>
-  <si>
     <t>LATERAL RAISE</t>
   </si>
   <si>
     <t>Shoulder</t>
   </si>
   <si>
-    <t>Stand tall, a dumbbell in each hand. Arms are at your sides, palms facing in. Position your feet roughly hip-distance apart. Check your posture—roll your shoulders back, engage your core, and look straight ahead.$Raise your arms simultaneously just a couple inches out to each side and pause. This momentary pause should help ensure you disengage your trapezius muscle from the movement, targeting the deltoids as intended.$Lift the dumbbells up and out to each side, keeping your arms almost completely straight, stopping when your elbows reach shoulder-height and your body is forming a "T" shape. Breathe in as you lift.$Pause and hold for a second at the top of the movement.$Lower the weights slowly (take about twice as long to lower the weights as you took to lift them), bringing your arms back to your sides. Breathe out as you lower the dumbbells.</t>
-  </si>
-  <si>
     <t>REVERSE BICEP CURL</t>
   </si>
   <si>
     <t>Biceps</t>
   </si>
   <si>
-    <t>Stand with hands and feet shoulder-width apart. Grip the barbell palms facing down (pronated grip) while keeping your body straight and chest lifted.$Holding the upper arms stationary, exhale and lift the bar toward your shoulders bending at the elbows.$Continue to curl the bar toward your shoulders until you feel a complete biceps contraction.$Slowly lower the bar with control to the start position.$Repeat the exercise for a determined amount of reps and sets.$</t>
-  </si>
-  <si>
     <t>TRX ROW</t>
   </si>
   <si>
     <t>Suspension Rope</t>
   </si>
   <si>
-    <t>Grasp the handles of the suspension trainer, one per hand. Step backward, away from the point where the suspension trainer is anchored until the suspension trainer and your arms are forming a straight line, your elbows extended, your arms reaching straight out in front of your chest.$Position your feet about hip-distance apart. Roll your shoulders back and "lock them" in place so you're standing with good posture. Engage your core and start leaning back, your weight in your heels, until your arms (holding the suspension trainer handles) are keeping you from falling backward. Your body should look like it's in an upright plank position. Keeping this plank-like position, with your core activated and your shoulders "locked" in place so they don't roll forward, start stepping your feet forward so your body begins creating an angle with the ground. Aim for a position where your body is angled somewhere between 30 and 60 degrees with the ground. Your feet and your arms are supporting your body weight, but your cor$remains engaged to prevent any sagging of the hips. This is the starting position.$Turn the handles of the suspension trainer inward so your palms are facing each other. Make sure your hands are positioned chest-width apart. The goal will be to keep them in this position throughout the exercise. Take a breath in.$Use the muscles of your upper back, arms, and shoulders to pull your chest and torso up toward the handles of the suspension trainer, bending your elbows as you pull yourself up. Squeeze your shoulder blades together and keep your elbows close to your body and your palms facing in. Exhale as you go, and keep pulling until your chest is even with your hands.$Hold the top position for a second then reverse the movement and slowly lower yourself back to the starting position as you inhale. You may find yourself tempted to "drop" down to the starting position, but don't. Lower yourself slowly—aim for a speed double that of the upward phase—to maximize the strength-building benefits. Also, avoid allowing your shoulders to "collapse" or "slouch" forward at the bottom of the movement—they should remain engaged and "locked" in place, maintaining good posture throughout the row.$Complete a full set of repetitions, then exit the movement by walking your feet backward until you're standing upright. If you find you can only complete a few good repetitions at a given body angle, feel free to make adjustments to the angle of your body as you perform each set. For instance, if you start a set and it feels too easy, walk your feet forward to make it more difficult. Likewise, if you perform a few repetitions and it starts to feel too hard, walk your feet back a step or two to make the exercise easier.</t>
-  </si>
-  <si>
     <t>VERTICAL KNEE RAISE</t>
   </si>
   <si>
     <t>Hips, Abdominal</t>
   </si>
   <si>
-    <t>Take your feet off the support, allowing your legs to dangle. Inhale.$Slowly bend your knees and lift them toward your chest while exhaling. The motion should be controlled and deliberate as you bring your knees up until your thighs are parallel to the floor.$Continue to bring your knees up as high as you can without rounding the upper back off of the backrest and looking down. You will work the abs more once your knees are higher than parallel to the floor.$Slowly return your legs to the starting position, while inhaling.</t>
-  </si>
-  <si>
     <t>TRICEP PUSHDOWN</t>
   </si>
   <si>
-    <t>Start by bracing your abdominals.$Tuck your elbows in at your sides and position your feet slightly apart.$Inhale. Push down until your elbows are fully extended but not yet in the straight, locked position. Keep your elbows close to your body and bend your knees slightly on the pushdown. Resist bending forward. Try to keep your back as straight as possible as you push down.1﻿$As you exhale, return to the starting point using a controlled movement. Try not to crash the weights.$For beginners, aim to complete 4 sets of 8 reps.</t>
-  </si>
-  <si>
     <t>BENT OVER ROW</t>
   </si>
   <si>
-    <t>With a dumbbell in each hand, bend over at about a 45-degree angle (no farther). Keep the back straight throughout the exercise. Brace your abdominals and breathe in.$Lift the weights straight up, exhaling. While lifting, the arms should go no higher than parallel with the shoulders—slightly lower than the shoulders is fine. While lifting, try to keep the wrists from excessive extra movement down or to the side. Do not squat down and up after the initial pose. No movement of the legs occurs throughout the exercise.$Lower the weights in a controlled manner while inhaling.$Remain bent over until all repetitions are complete</t>
-  </si>
-  <si>
     <t>DEADLIFT</t>
   </si>
   <si>
-    <t>Position the feet shoulder-width apart (or not much more) with toes under the bar. The feet point straight ahead or they can angle out slightly. Heels should stay flat on the surface. When you lift, the bar will travel close to the shins and may even graze them. Your head (and eyes) should reflect a neutral spine position—neither crooked noticeably up or down, although a very slight upward tilt is not uncommon or unsafe when putting the effort in.$Stabilize the abdominal muscles by bracing them.$Squat down, bending at the knees. The form for descending to the bar is similar (but not identical) to the squat, with back straight or arched in slightly and not rounded at the shoulders or spine.$Grasp the bar just outside the line of the knees with an overhand or mixed grip.$Lift the bar by pushing upward with the legs from the knees. Breathe out on exertion. Be careful not to raise the hips first so that the trunk moves forward and the back becomes rounded. Don’t try to haul the bar up with the arms. The arms stay extended under tension while gripping the bar as the legs push up. Think of the legs and shoulders moving upward in unison with the hips the balancing point.$The bar should almost graze the shins and come to rest around thigh level as you reach full height. Pull the shoulders back as much as possible without bending backward.$Lower the bar to the floor with a reverse motion ensuring a straight back again.$Repeat for your desired number of repetitions.</t>
-  </si>
-  <si>
     <t>SINGLE LEG DEADLIFT</t>
   </si>
   <si>
@@ -205,18 +151,12 @@
     <t>.</t>
   </si>
   <si>
-    <t>Stand straight with both feet on ground and legs straight, hands hanging down in front of you.$Press into the supporting leg as you slide the non-supporting leg back, allowing your upper body to move forward with your hip as the hinge. If at any point during the exercise you start to lose balance, simply touch the free-floating leg lightly to the floor to regain balance.$Keep the support (balancing) leg straight or allow a slight, gentle bend to the knee. Keep folding forward until your fingers reach the kettlebell handle, then grab the handle by wrapping your fingers around it.$Complete the movement by pulling with the muscles of the backside of your body—the hamstrings and butt muscles.$Complete the movement with your body upright and the support leg fully extended. Make sure to finish the full range of motion by pushing your hips forward at the top of the movement, so that your butt muscles are firm.$Take a slight pause to assure you have full control of your balance, then lower the kettlebell back to the floor under control.</t>
-  </si>
-  <si>
     <t>LEG CURL</t>
   </si>
   <si>
     <t>Bench</t>
   </si>
   <si>
-    <t>Start by lying flat on your stomach.$Adjust the roller pad so that it rests comfortably a few inches under your calves, just above the heels. Check to make sure the pads aren't too high up on your calves as this can place pressure on your Achilles tendon and reduce your range of motion.$Stretch your legs out fully. On an inhale, lightly grasp the support handles on each side of the machine.$Lift your feet smoothly as you exhale, keeping your hips firmly on the bench.$Inhale as you flex your knees and pull your ankles as close to your buttocks as you can.$Hold this position for a beat, allowing yourself to make sure you are focused as you prepare to lower your legs.$Inhale fully as you return your feet to starting position in a smooth, slow, controlled movement.$Repeat for 8 to 12 reps.</t>
-  </si>
-  <si>
     <t>CROSSOVER CRUNCH</t>
   </si>
   <si>
@@ -226,54 +166,33 @@
     <t>Mat</t>
   </si>
   <si>
-    <t>Lay flat on the mat with your body positioned in a straight line from the top of your head, down your spine, and into your tailbone.$Place your hands behind your head, elbows out.$Inhale as you cross your left leg over your right resting your left ankle your right knee.$Exhale as you contract your abdominal muscles and slowly raise your upper body off the mat (similar to a basic crunch).$Slowly twist your torso to your left as you squeeze your abs, bringing your right elbow to your left knee until they touch.$Inhale as you slowly lower your upper body back down to the mat.</t>
-  </si>
-  <si>
     <t>VERTICAL LEG CRUNCH</t>
   </si>
   <si>
-    <t>Place your hands folded behind your neck.$Bring your legs up, extending them perpendicular to the floor with knees slightly bent. Keep your lower spine flat on the floor.$Contract your abs in preparation for the lift.$Begin by slowly curling your upper body, lifting your shoulder blades off of the floor. Exhale on the upward motion. Keep your legs straight and pointed upward; don't let them sway or list to one side.$Continue curling your body upward using your core muscles. Don't lead with the head by pulling on the neck, and keep your chin up.$When your shoulder blades are off of the floor, pause and hold the position a moment or two.$Begin lowering the upper body by uncurling slowly. Inhale on the downward motion. Don't allow your legs to sway, and don't let them crash back to the floor. This should be a slow and controlled descent.$Keep your legs in the fixed starting position.$Do 3 sets of 12 to 16 reps.</t>
-  </si>
-  <si>
     <t>SIT UPS</t>
   </si>
   <si>
-    <t xml:space="preserve">Lie face-up on the floor. Bend your knees so your feet are flat on the floor. Plant your feet firmly, tucking them under a bench or some sort of other brace if you have to. If you have a partner, you can have them hold your feet down (it’s worth noting that the ideal way to perform sit-ups is without a foot brace—you may want to work on strengthening your core until you get to that point before attempting sit-ups, for optimal results). $Cross your arms over your chest. Your left hand should rest on your right shoulder and vice versa. Don’t put your hands behind your head, as this can cause you to pull on your neck. $Engage your core. To do so, take a deep breath and think of drawing your belly button to your spine. Your core should be fully engaged before you start your first rep. $Use your ab muscles to lift your back off of the ground. Your tailbone and hips should remain static and pressed into the floor until you’re fully upright. It may help to think about lifting one vertebra at a time, rather than lifting your entire back all at once. This is where the sit-up gets its other names, curl-up and roll-up—picture yourself curling up one back bone at a time, until you’re sitting all the way up.$With immense control, lower yourself back to the starting position. This time, picture yourself uncurling one vertebrae at a time, starting with your lower back. Do not thud into the floor. $Once you’re lying face-up again, re-engage your core to start another rep. Repeat until you finish your set. </t>
-  </si>
-  <si>
     <t xml:space="preserve">TRUNK ROTATION </t>
   </si>
   <si>
     <t>Lower Back, Abdominal</t>
   </si>
   <si>
-    <t>Start in a supine position (lying on back) on an exercise mat.$Keep your knees bent and feet flat on the floor.$Maintain your shoulders and upper body firmly against the floor.$Outstretch your arms and press them into the floor to help with balance during the movement.$Engage/tighten the abdominal muscles.$Slowly rotate the knees to one side with control, working within your range of motion. Your feet will shift but remain on the floor.$Hold the position for 3–5 seconds.$Engage/tighten the abdominal muscles to move your legs to the opposite side.$Hold for another 3–5 seconds.$Stay focused and breathe normally through the exercise.$Repeat the exercise for a determined amount of reps, such as 10 times on each side.</t>
-  </si>
-  <si>
     <t>JACK KNIFE</t>
   </si>
   <si>
-    <t>Inhale to bring the legs into roll over position. Use a deepening scoop of your abdominal muscles and some help from the press of your arms to bring your legs over your head, parallel to the floor. Your back is curved so that the weight is on your shoulders and not on your neck.$Exhale to sweep the legs up. Keep your chest open and the backs of your arms pressing down as you lift your legs up so that you are as close as you can get to perpendicular to the floor. You are on your shoulders, not your neck, getting help from the press of your shoulders and arms on the mat. This is a strong powerhouse move requiring hip extension with upper body flexion. Think "up, up, up" and shoot up through the midline of your body.$Inhale to bring your legs back to parallel to the floor. Do not go all the way to the floor.$Exhale to roll down with straight legs, vertebra by vertebra, until you are back to the start position.$Repeat the exercise 2 more times.</t>
-  </si>
-  <si>
     <t>LEG PULL FRONT</t>
   </si>
   <si>
     <t>Shoulders</t>
   </si>
   <si>
-    <t>Extend one leg from the hip so that your foot lifts off the mat a few inches. Your foot can point softly as it is released from the mat. As you extend your leg, your hip will lift slightly, but the challenge is to keep the rest of your body stable in plank position. This requires extra work from your abdominals, shoulders, and back.$Return your foot to the mat and extend the other leg.$Repeat the lift five to seven times on each side.</t>
-  </si>
-  <si>
     <t>SIDE PLANK</t>
   </si>
   <si>
     <t>Core</t>
   </si>
   <si>
-    <t>Lie on your right side, legs extended and stacked from hip to feet. The elbow of your right arm is directly under your shoulder. Ensure your head is directly in line with your spine. Your left arm can be aligned along the left side of your body.$Engage your abdominal muscles, drawing your navel toward your spine.$Lift your hips and knees from the mat while exhaling. Your torso is straight in line with no sagging or bending. Hold the position.$After several breaths, inhale and return to the starting position. The goal should be to hold for 60 seconds. Change sides and repeat.</t>
-  </si>
-  <si>
     <t>CHEST PRESS</t>
   </si>
   <si>
@@ -283,111 +202,66 @@
     <t>Barbell, Bench</t>
   </si>
   <si>
-    <t>A spotter or smith machine is recommended for safety.$Use a decline bench station or decline bench/power rack combination.$Position the barbell at the correct reach level on the rack (you are able to grip/lift the bar off rack with assistance).$Load weight resistance appropriate to your fitness level on the barbell.$Secure your feet at the end of the decline bench and slowly lay down on the bench.$Avoid hitting your head on the bar as you lower your body down.$Grab the bar using a regular/standard, slightly wider than shoulder-width hand grip.$Unrack the weighted bar with spotter assistance.$Slowly lower the bar to your chest, inhaling during this part of the motion.$Raise the bar with an explosive push to start position, exhaling during this part of the motion.$Repeat the exercise for a determined amount of reps.$Tighten your core, keep chin tucked, exhale and lift your body up grabbing footholds to get off the bench.</t>
-  </si>
-  <si>
     <t>INCLINE DUMBELL PRESS</t>
   </si>
   <si>
     <t>Dumbbell, Bench</t>
   </si>
   <si>
-    <t>Sit on the bench and lean back. Hold a dumbbell in each hand, with hands positioned at your shoulders, elbows bent and angled down below your ribs. Relax your neck against the bench. Keep your feet flat on the floor.$Brace your core and press both dumbbells straight up over your chest as you exhale. Keep your wrists straight (don't let them "cock" backward). At the top of the movement, the dumbbells should almost touch each other and your arms should be perpendicular to the floor.$Reverse the movement and slowly lower the dumbbells back to the top of your chest as you inhale. As you lower the dumbbells, your elbows should come down at roughly a 45-degree angle to your torso. They shouldn't splay out to the sides, pointing toward the side of the room. Instead, keep your elbows pointing to the floor.$Aim to complete sets of 8 to 12 reps. Start with one set and work up to two to three sets over time as you build strength. When you finish your set, safely exit the exercise by sitting up and placing the dumbbells on your knees before you stand up. Avoid dropping the dumbbells while you're lying on the incline bench.</t>
-  </si>
-  <si>
     <t>DUMBBELL PULLOVER</t>
   </si>
   <si>
-    <t>Place one dumbbell in each hand. Extend your arms over your chest with the palms facing each other. Keep the elbows slightly bent and soft.$Keep a strong back and core while you inhale and extend the weights back and over your head. Take about 3–4 seconds to reach a fully extended position where the weights are behind (but not below) your head. Keep the elbows soft.$Once you reach full extension, exhale slowly and return your arms to the starting position over your chest.</t>
-  </si>
-  <si>
     <t>JUMP SQUATS</t>
   </si>
   <si>
     <t>Hips,Legs</t>
   </si>
   <si>
-    <t>Stand with feet shoulder width and knees slightly bent.$Bend your knees and descend to a full squat position.$At the bottom of the squat, powerfully explode straight up bringing your knees toward your chest while in midair. At the top of the jump, your thighs should touch your torso.$Release your legs, control your landing by going through your foot (toes, ball, arches, heel) and descend into the squat again for another explosive jump.$Upon landing immediately repeat the next jump.</t>
-  </si>
-  <si>
     <t>SINGLE LEG SQUATS</t>
   </si>
   <si>
-    <t>Stand on one leg with your foot pointing straight ahead and the knee of the other leg slightly bent. You can have your arms extended for balance or kept at your sides. Roll your shoulder blades back and keep your back straight. Keep your weight centered over the ball of your foot, your upper body erect, and your head facing forward.$Raise the non-supporting foot from the floor slightly.$Lower to a squat position, keeping the knee of the supporting leg centered over the ball of the foot. Start with shallow squats and work your way closer to the ground.$Repeat for 10 squats on each leg. Aim for three sets.</t>
-  </si>
-  <si>
     <t>LUNGES</t>
   </si>
   <si>
     <t>Lower Body</t>
   </si>
   <si>
-    <t>Stand in a split stance with the right foot forward and the left leg back The feet should be about 2 to 3 feet apart, depending on your leg length. The split stance will require balance, so hold onto a wall or chair if you feel wobbly Before you lunge, make sure your torso is straight and that you’re up on the back toe.$Bend the knees and lower the body down until the back knee is a few inches from the floor.$At the bottom of the movement, the front thigh should be parallel to the floor and the back knee should point toward the floor. The weight should be evenly distributed between both legs.$Push back up, keeping the weight in the heel of the front foot.$Repeat for all reps before switching sides.</t>
-  </si>
-  <si>
     <t>HIP ABDUCTION</t>
   </si>
   <si>
-    <t>Lie down on your side on an exercise mat with legs extended and hips in a parallel line, one on top of the other.$Bend your lower arm underneath your head, allowing the full weight of your head to rest on your forearm so it’s in line with your vertebrae. $Relax your feet into a neutral position, perpendicular to your legs. $Exhale while raising your upper leg to just above your hip joint. When you feel your hips and back start to tense, stop and hold the position for one to two seconds.$Inhale and slowly lower your leg to its starting position, keeping it straight and stacked directly above the lower leg. $Repeat for a total set of 10 raises.$Flip over to your opposite side and repeat the process with your other leg. $Continue alternating legs for three sets of 10 raises on each leg.</t>
-  </si>
-  <si>
     <t>CALF RAISE</t>
   </si>
   <si>
     <t>Leg</t>
   </si>
   <si>
-    <t>Hold weights of the same size at your sides with your arms slack.$Spread feet shoulder-width apart, then slowly raise your heels, keeping your knees extended (but not locked). Pause for one second.$Slowly lower your heels back to the ground.$Repeat 10-30 times.</t>
-  </si>
-  <si>
     <t>UPRIGHT ROW</t>
   </si>
   <si>
-    <t>Grasp a barbell or dumbbells and allow it to hang in front of you at the length of your arms. Your palms should be facing your body.$Standing up straight, adjust your grip so that your hands are about in line with the thighs. Shoulder-width apart (no closer) is recommended for wrist and shoulder safety.$Breathe in and brace the abdominals, keep the back straight, chest up, and eyes focused forward.$Lift the barbell straight up toward the chin, leading with the elbows and keeping the bar close to the body. Breathe out during the effort. Your arms should go no higher than parallel with the shoulders. Slightly less is OK.$Pause at the top of the lift.$Return the barbell back to the starting position, breathing in as you lower it.$Repeat the move for your defined number of repetitions.</t>
-  </si>
-  <si>
     <t>DUMBBELL FRONT RAISE</t>
   </si>
   <si>
     <t>Shoulders, Chest</t>
   </si>
   <si>
-    <t>Stand with feet about shoulder-width apart. Keep the back straight and feet planted flat on the floor. Your arms holding weights should hang down.$Hold the dumbbells across the thighs horizontally, palms facing back toward the thighs. Ensure that you have a firm grip.$Brace the abdominal muscles.$Lift the weights upward, inhaling, with arms out in front and palms facing down. Keep a slight bend in the elbows to reduce the stress on the joints. Pause when the arms are approximately horizontal to the floor and feel the contraction in the shoulders.$Return the dumbbells to the starting position at the thighs with a slow and controlled motion while exhaling.$Repeat the exercise for the number of sets and repetitions in your program.</t>
-  </si>
-  <si>
     <t>LATERAL JUMPS</t>
   </si>
   <si>
-    <t>With feet no more than hip-width apart, bend your knees to squat straight down. Keep your weight on your heels.$Shift weight from heels to toes as you begin your jump, quickly push upward and sideways toward the other side of the line. Land softly and absorb the shock by squatting deeply. Repeat jumping back and forth over the line while keeping your shoulders and hips square and facing forward. You can vary your landing so that you land and rebound on both feet at once, or land on one foot first and rebound with a short double-step.$Perform for 30- to 60-second intervals. In a workout, rest for 60 to 90 seconds, then repeat for three sets. Or, add them to a circuit training routine.</t>
-  </si>
-  <si>
     <t>AGILITY LADDER</t>
   </si>
   <si>
     <t>Ladder</t>
   </si>
   <si>
-    <t>Shift your weight into the left foot and place the right foot into the first square of the ladder. Put the toes down then shift your weight onto that (right) foot.$Place the left foot into the same (first) square of the ladder. Put the toes down first then shift your weight onto that (left) foot.$Repeat the movement in #1 stepping into the second square of the agility ladder.$Repeat the movement in #2 stepping into the second square of the agility ladder.$Continue the sequence advancing forward in the agility ladder, moving into the third square, the fourth square, and so on.</t>
-  </si>
-  <si>
     <t xml:space="preserve">BIRD-DOG </t>
   </si>
   <si>
-    <t>Kneel with knees hip-width apart and hands firmly on the ground about shoulder-width apart. Brace the abdominals.$Practice lifting one hand and the opposite knee just an inch or two off the floor while balancing on the other hand and knee and keeping your weight centered.$When you feel steady and ready to move on to full range of motion, point the arm out straight in front and extend the opposite leg behind you. You should form one straight line from your hand to your foot, keeping hips squared to the ground. If your low back begins to sag, raise your leg only as high as you can while keeping your back straight.$Hold for a few seconds, then return your hands and knees.$Switch to the other side.$Keep the abs engaged throughout the entire exercise, and work to minimize any extra motion in your hips during the weight shift.</t>
-  </si>
-  <si>
     <t>INCHWORMS</t>
   </si>
   <si>
-    <t>Stand tall, your feet roughly hip-distance apart. Check your posture—your ears should be aligned over your shoulders, hips, knees, and ankles, your abdominals engaged.$Take a breath in, then as you exhale, look down at the ground and start reaching your hands toward the floor in front of your feet, allowing your back to bend forward, rolling down one vertebra at a time. Allow your knees to bend slightly, as needed, to enable your hands to reach the ground.$Place your hands on the floor in front of your feet. Inhale and walk your hands forward, one at a time, allowing your heels to lift off the floor as your body begins to straighten. When your hands are directly under your shoulders, check your form—you should be in a full plank position with your core, chest, quads, triceps, and shoulders engaged, your body forming a straight line from heels to head.$Keep your legs relatively straight and begin walking your feet forward, one at a time, toward your hands. This should provide a nice stretch through your hamstrings, calves, and glutes as your hips start lifting toward the ceiling. Exhale as you step forward.$Stop when your feet are as close to your hands as you can comfortably bring them. Remember, you can bend your knees slightly to ease the stretch on your hamstrings, but try to keep them as straight as possible.$Return to standing by slowly rolling your back up from the hips, straightening one vertebra at a time. Inhale as you go. When you're back in the starting position, you've completed one repetition. Continue for time or repetitions, depending on your workout.</t>
-  </si>
-  <si>
     <t>BEAR CRAWL</t>
   </si>
   <si>
-    <t>Begin to move forward by simultaneously moving the right hand and the left leg forward with a crawling motion.$Immediately after placing weight on the right hand and left leg, switch sides and move the left hand and right leg forward.$Keep the body relatively low and you continue in a crawling motion. Imagine that you are crawling beneath a low net.</t>
-  </si>
-  <si>
     <t>SLAMS</t>
   </si>
   <si>
@@ -397,165 +271,96 @@
     <t>ALTERNATING SUPERMAN</t>
   </si>
   <si>
-    <t>Lie face down on a mat with your arms stretched above your head (like Superman)$Raise your right arm and left leg about 5 to 6 inches off the ground (or as far as you comfortably can)$Hold for 3 seconds and relax.$Repeat with the opposite arm and leg</t>
-  </si>
-  <si>
     <t>DEAD BUG</t>
   </si>
   <si>
-    <t>Lie on the mat with your arms extended straight over your chest so they form a perpendicular angle with your torso. Bend your hips and knees 90-degrees, lifting your feet from the ground. Your torso and thighs should form a right angle, as should your thighs and shins. This is the starting position$Engage your core, maintaining contact between your lower back and the mat. You want to make sure your spine maintains this steady and neutral position throughout the exercise$Keep your right arm and left leg exactly where they are, then slowly reach your left arm backward, over your head and toward the floor as you simultaneously extend your right knee and hip, reaching your right heel toward the floor. Move slowly and steadily, breathing in as you perform the extensions, avoiding any twisting or movement of your hips and abs. Stop the movement just before your arm and leg touch the ground.$Reverse the movement and return your left arm and right leg to their starting positions. Move slowly and steadily, exhaling as you go.$Perform the same movements to the opposite sides, this time keeping your left arm and right leg steady as you extend your right arm and left leg.$Do the same number of repetitions on each side. When you complete a full set, simply return your feet to the ground and sit up.</t>
-  </si>
-  <si>
     <t>V-SIT</t>
   </si>
   <si>
-    <t>Contract your abdominal muscles and core slowly and lift your legs up to an extended position at a 45-degree angle with your torso.$Reach your arms straight forward or reach up toward your shins as you are able. It's important to maintain good core posture and a strong spine throughout the movement and to avoid rounding the shoulders forward. Don't hold your breath—continue to breathe deeply during the movement.$Hold this V-shaped position for several seconds to begin. As you get stronger, hold the position longer.$Return to your starting position slowly while continuing to keep your abs engaged and tight.$Just before you reach the floor, stop and hold the position for a few seconds.$Repeat this entire movement several times.</t>
-  </si>
-  <si>
     <t>BOX JUMPS</t>
   </si>
   <si>
     <t>Box</t>
   </si>
   <si>
-    <t>Stand facing the box, your feet within roughly six inches of its side. Your feet should be about hip-distance apart, your knees and hips slightly bent in an athletic stance.$Bend your knees and press your hips back as you swing your arms behind you in a smooth motion.$Explode through the balls of your feet, jumping straight up into the air, swinging your arms up and forward as you fully extend your knees and hips to get as much height as you can with your jump.$At the height of your jump, bend your knees and hips to draw them forward to be able to land on top of the box.$Land with both feet at the same time atop the box, leading with the balls of your feet, following with your heels. Try to do this "softly," allowing your knees and hips to bend naturally to help absorb the shock of the landing.$Check your foot position—when on top of the box, your feet should be roughly hip-distance apart.$Step—don't jump—carefully off the box and reset for the next repetition.</t>
-  </si>
-  <si>
     <t>KETTLEBELL WINDMILL</t>
   </si>
   <si>
     <t>Kettlebell</t>
   </si>
   <si>
-    <t>Start with the feet slightly wider than hip-distance apart. Toes can rotate out just slightly to allow for a greater range of motion.$Grip the kettlebell with your right hand and extend the right arm over your head. Your right palm should face forward.$Extend the left arm down in front of your left thigh with the palm facing forward. In this position, your arms might look like two arms of a windmill.$Hinging at the hips, lower the upper body down and to the left side. Your left hand will stay facing forward while it slides down near the front of your left leg toward your foot. Keep the right arm steady and fully extended overhead.$In the lowest position (with the left hand close to the left foot) your torso will be tipped to the left but slightly rotated to the right. When done properly, you'll feel some weight shift into your right hip.$Reverse the movement, lifting the body while keeping a strong straight spine. Keep the weight steady and elevated over the right shoulder.$Return to the starting position and begin again.</t>
-  </si>
-  <si>
     <t>HALOS</t>
   </si>
   <si>
     <t>Shoulders,Arm</t>
   </si>
   <si>
-    <t>Begin in a standing position with good posture. Shoulders should be relaxed and positioned over the hips. Knees should remain straight but soft (not locked or stiff).$Hold the kettlebell in front of the body, grasping the horns (the vertical sides of the handle). The handle should face down and the bottom or ball of the kettlebell faces up.$Begin by circling to the right. Carry the kettlebell around the right side of your head and let the kettlebell drop down behind the neck. Finish the circle by bringing it around the left side of your head back to the starting position. You will be touching your hair—you almost want to mess it up as you come around.$After you complete one full rotation, reverse direction. Begin by circling to the left and finish by coming around the right back to the starting position.</t>
-  </si>
-  <si>
     <t>HEAD STAND PUSH UPS</t>
   </si>
   <si>
-    <t>Before attempting a handstand push-up, set up a cushion (like an ab mat or a yoga mat) against the wall to protect your head and neck. $Stand facing the wall. Bend down and place your hands six to 12 inches away from the wall, fingers spread and pressing into the ground. Kick up into a handstand. Kick hard enough so that you get up in one swoop, but not so hard that your heels bounce off the wall. $Once you’re inverted, steady yourself by tucking your tailbone under, drawing your navel to your spine, tightening your abs, and squeezing your glutes. Your body should form one solid, straight line.$Bend your elbows to lower yourself to the mat beneath your head. Use control so you don’t slam your head into the ground. Even if you have a cushion, that would hurt.$Once the top of your head grazes the floor, press your body back up by extending your arms. Think of pressing into the floor as if you were pressing a barbell over your head. Keep your core tight and engaged to prevent your spine from overextending. $At the top of the press, fully extend your arms (lock out your elbows) and reset to descend for another rep. Unless you're an advanced athlete, don't rush into the next rep. Make sure you re-engage your core first.</t>
-  </si>
-  <si>
     <t>HIP THRUST</t>
   </si>
   <si>
-    <t>Start seated on the floor, knees bent, feet slightly wider than hip-distance apart. The toes can be turned out just slightly. The upper back (lower scapula) should be resting against the edge of the weight bench in the center of the bench.$Place the weight bar across the hips.$Squeeze the glutes and press the bar straight up until the hips are in line with the shoulders and the knees. The bench should be supporting the mid-scapula area. Keep the core tight and maintain a slight chin tuck with $your focus down your body (a few inches above the bar).$Slowly lower the bar down until the hips are just a few inches off the floor.$Squeeze the glutes and lift again.</t>
-  </si>
-  <si>
     <t>RENEGADE ROW</t>
   </si>
   <si>
     <t>Shoulders,Biceps</t>
   </si>
   <si>
-    <t>Place the dumbbells on the floor, positioned so that when you set up in a plank position, the dumbbells are roughly shoulder-distance apart and the handles of the dumbbells are parallel to one another.$Start on your hands and knees in a tabletop-like position, gripping one dumbbell with each hand. Your hands should be aligned beneath your shoulders and your knees under your hips.$Step your feet behind you to enter a full plank position, your body supported by your hands and the balls of your feet. Check your form here—your body should form a straight line from your heels to your head with your core engaged and tight. Position your feet so they're roughly hip-distance apart to offer more balance and support to the exercise.$Inhale and shift your weight slightly to your left side so more of your weight is supported by your left palm. Your body shouldn't twist—make sure both hips and shoulders remain square to the floor.$Squeeze your right shoulder blade toward your spine and draw the dumbbell held in your right hand toward your chest, bending your elbow as you draw the dumbbell toward you. Exhale as you lift the dumbbell. Check your form at the top of the movement—your hips and shoulders should still be squared to the floor, the dumbbell should be pulled all the way to your right chest/shoulder, and your right elbow should be pointing up and toward the back of the room.$Lower the dumbbell slowly to the floor, returning it to the starting position.$Shift your weight to the right side and repeat the exercise, this time drawing the left dumbbell to your left chest/shoulder. This completes one full repetition.$Complete the desired number of repetitions and exit the exercise by lowering your knees back to the floor before releasing the dumbbells and sitting up.</t>
-  </si>
-  <si>
     <t>ROMANIAN DEADLIFT</t>
   </si>
   <si>
-    <t>Stand tall with your feet roughly hip-distance apart. Hold a barbell in both hands directly in front of your thighs with your hands shoulder-distance apart (slightly wider than your thighs).$Start with a very slight bend in your knees. Roll your shoulders back, drawing your shoulder blades toward your spine to engage your upper back. Your shoulders should remain pulled back like this throughout the exercise.$Inhale and press your hips back. Continue pressing them back (like your hips are hinging), as your torso naturally begins to lean forward toward the floor. It's important to realize you're not tipping forward at the waist. The movement of your torso only happens as a result of your hips hinging, not because you're actively leaning forward. Check to make sure you still have perfect posture and your shoulders and back aren't rounding forward.$Keep the barbell close to your thighs (almost grazing the front of them) as you hinge forward from the hips. If there are several inches between your body and the barbell, roll your shoulders back and pull the barbell closer to your body. Your arms should hang naturally down (elbows extended), but they should remain engaged to keep the barbell close to you.$Stop hinging at your hips when you feel a stretch through your hamstrings. The barbell does not have to reach the floor—in fact, it's perfectly fine if you stop the movement when the barbell reaches roughly knee-height, depending on your personal flexibility.$Exhale and use your hamstrings and glutes to "pull" your torso back to standing as you actively press your hips forward. You should not use your back or core to pull yourself back to standing.Complete your set and replace the barbell carefully on the rack.</t>
-  </si>
-  <si>
     <t>KETTLEBELL SWING</t>
   </si>
   <si>
     <t>Core,Hips</t>
   </si>
   <si>
-    <t>$Place the kettlebell on the ground between your feet. Stand with your feet slightly wider than hip-distance apart, your toes angled out slightly. Bend your knees just a little bit and check your posture—make sure your shoulders are rolled back so your ears are aligned with your shoulders, hips, knees, and ankles. Engage your abdominals, drawing your belly button back toward your spine$Keep your back completely straight (maintain your perfect posture) and press your hips back, tipping your torso forward as you reach your hands toward the kettlebell handle. You should create a crease at the front of your hip joint as you perform this hip-hinge movement. Make sure you don't start bending your knees to squat down to the kettlebell—if your knees start bending significantly, you'll lose the hip hinge. If you notice your knees bending, reset and work on pressing your hips back farther.$Grasp the kettlebell handle firmly with both hands. Roll your shoulders back slightly to make sure they remain engaged—this helps control the momentum of the swing while preventing a forward curve of the spine. Make sure your core is still engaged and take a breath in.$Exhale and in one powerful movement, squeeze your glutes and hamstrings as hard as you can to fully extend your hips as you reverse the hip hinge and rise to the upright, starting position. As your hips extend, allow the kettlebell to naturally swing forward from your shoulders as high as it will naturally swing. On your first swing or two, it may not swing all the way to shoulder-height, but as you build momentum, allow the kettlebell to swing to the point where it feels weightless for a split second, usually when it's almost parallel to the ground. Your torso should remain straight, your core, upper back, and shoulders all engaged, throughout this upward swing.$Allow the kettlebell to naturally start its pendulum swing back toward the floor, and as it does, press your hips back and perform the next hip hinge, so the kettlebell swings directly between your legs. Keep your neck aligned with your spine throughout the exercise. Exhale with every forward swing, inhale with every backward swing.$Continue the forward-and-backward kettlebell swings for time or repetitions, remembering to keep your torso straight and to power the movement with your hips and glutes. Don't exit the move suddenly by dropping the kettlebell or forcing your momentum to stop. Maintain proper swing form, but reduce the power you use with each swing until you can comfortably and safely return the kettlebell to the floor.</t>
-  </si>
-  <si>
     <t>KETTLEBELL SNATCH</t>
   </si>
   <si>
-    <t>Use a low-inertia swing to get kettlebell moving.$Perform a vertical acceleration pull with hip and trap while pushing with the opposite foot.$Insert hand deep into the handle with thumb facing back.$Fixate (lockout) kettlebell overhead.$Deflect trunk back into hyperextension.$Pull hand back and change grip into the backswing.</t>
-  </si>
-  <si>
     <t>BARBELL FRONT SQUAT</t>
   </si>
   <si>
-    <t>Begin to lower the body into a deep squat with the weight descending down between the knees. Keep the spine long and the back tall and upright. You'll notice that the back stays almost completely vertical as you descend, unlike a traditional squat where the torso leans slightly forward.$Your hips stay under the bar (rather than floating behind the bar in a traditional squat) even as your glutes continue to lower down below knee level. You'll also notice that the knees extend further out in front and the ankles flex more than in a traditional squat.$Keep the heels on the ground and your weight centered over the middle of your feet as you continue to descend. Try not to shift forward into the balls of the feet or back into the heels.$At the lowest position your hamstrings will nearly touch the back of the calves. Keep elbows lifted at bar height (if possible) and chest upright to prevent the bar from rolling forward.$Reverse the squat in a slow, controlled manner with the hips and knees extending simultaneously. Continue lifting until the body is back at the starting position.</t>
-  </si>
-  <si>
     <t>AB ROLLOUT</t>
   </si>
   <si>
-    <t>Kneel down on the floor, with a stability ball in front of you. You can use a mat to kneel on for extra cushioning. The ball should be within arms reach.$Put your hands in a loose fist and place them on the ball. Your Forearms will also rest on the ball. Make sure your elbows are bent 90 degrees. Keep your body in a straight line with your back flat.$Roll the ball forward with your hands as your arms and body straighten out. This motion needs to be slow and controlled. Keep your gaze looking straight ahead.$Extend out as far as you can go. Your chest will touch the ball. Hold this position for a few seconds.$Slowly reverse the movement by bending your elbows to roll the ball back to the starting position. Keep your core tight, so your hips don’t drop.</t>
-  </si>
-  <si>
     <t>FARMER CARRY</t>
   </si>
   <si>
     <t>shoulders,biceps</t>
   </si>
   <si>
-    <t>Choose a set of kettlebells or dumbbells of equal weight. Make sure to choose a weight that is heavy enough to create resistance, yet light enough that you can keep your form strict and posture upright.$Hold one kettlebell or dumbbell in each hand with a tight, firm grip.$Stand tall with your feet about shoulder-width apart and arms resting at your sides.$Begin the movement by engaging the core muscles, pulling your shoulder blades down and back, and making sure your posture is upright.$Take a step forward and begin walking while carrying a kettlebell or dumbbell in each hand. Be sure to keep your head up, shoulders back, and core muscles contracted the entire time.$Continue walking for a specified time or number of steps. To make the move more cardiovascular, increase your pace. You can also increase the number of steps or time based on your fitness level.</t>
-  </si>
-  <si>
     <t>PUSHUPS</t>
   </si>
   <si>
     <t>Chest,Arm,Shoulders</t>
   </si>
   <si>
-    <t>Start in a plank position, your hands slightly wider than shoulder-distance apart, but directly under your shoulders. Your body should form a straight line from heels to head.$Tighten your core and begin bending your elbows, so they angle backward at 45-degrees from your body as you lower your chest toward the floor. Inhale as you move through the lowering phase of the exercise.$Pick up your right foot and draw your right knee up and out, so your right knee reaches your elbow just as your chest hovers about an inch or two from the mat.$Reverse the movement, extending your elbows to press up to the plank position as you simultaneously extend your knee and return your right foot to the floor. Exhale as you press yourself back to the starting position.$Repeat to the opposite side, this time bringing your left knee to your left elbow.$When you complete a full set (aim for at least 8-10 pushups, alternating sides), place your knees on the ground and kneel before you move to standing.</t>
-  </si>
-  <si>
     <t>INCLINE PUSHUPS</t>
   </si>
   <si>
-    <t>Stand facing the bench, table, or the edge of a bed.$Place your hands on the edge of the bench just slightly wider than shoulder width. Your arms are straight but elbows are not locked. Align your feet so that your arms and body are completely straight.$Bend your elbows to slowly lower your chest to the edge of the bench while inhaling. Keep your body straight and rigid throughout the movement.$Push your body away from the bench until your elbows are extended, but not locked. Exhale as you push up.$Keep going with slow, steady repetitions.$</t>
-  </si>
-  <si>
     <t>DECLINE PUSHUPS</t>
   </si>
   <si>
-    <t>Start on your hands and knees, place your hands on the ground, about shoulder-width or a little wider. Be careful not to have them too wide or you will severely limit your range of motion on the descent. Carefully move your feet in position by extending your body, and propping your feet up on the bench, or step, one at a time. Realign your body so that it is in a straight line for shoulders to hips to toes, without sagging or arching at the hips. Reposition your hands if necessary, making sure your elbows are extended.$Lower your chest by bending your elbows. Maintain an aligned body position and use a smooth controlled motion. As you lower to the ground, you will need to look up slightly to allow full range of motion and avoid banging your nose or forehead on the ground. As soon as you lift your head, you will want to arch your back but resist this temptation. Arching your back during this move is not helpful and could set you up for an injury.$Push up until your elbows are straight, but not locked, returning to the start position.$Repeat as many reps as you can do without compromising your form. When you can't complete another high-quality repetition, stop.</t>
-  </si>
-  <si>
     <t>BURPEES</t>
   </si>
   <si>
-    <t>Start standing with your feet about hip-width apart and your arms down by your sides. $Bend down and place your palms on the floor in front of your feet. As soon as your palms make contact with the floor, jump your feet out behind you to assume the high-plank position. Keep your core tight and spine straight. $Perform a push-up. Don’t let your hips sag and don’t let your back arch. $After you finish the push-up, lift your focus then hop your feet outside of your hands for a squat. You should land flat-footed (not on your heels or toes), with your feet outside and slightly behind your hands. $Stand up and jump, reaching your arms above your head. $Land with your knees bent to absorb the impact. As your feet make contact with the ground, start lowering yourself to start another rep.</t>
-  </si>
-  <si>
     <t>BASIC BRIDGE</t>
   </si>
   <si>
-    <t>Lie on your back with your hands at your sides, knees bent, and feet flat on the floor under your knees.$Tighten your abdominal and buttock muscles by pushing your low back into the ground before you push up.$Raise your hips to create a straight line from your knees to shoulders.$Squeeze your core and pull your belly button back toward your spine.$Hold for 20 to 30 seconds, and then return to your starting position.$Complete at least 10 reps.$</t>
-  </si>
-  <si>
     <t>SINGLE LEG BRIDGE</t>
   </si>
   <si>
     <t>Hips,Hamstring</t>
   </si>
   <si>
-    <t>Tighten your abdominal and buttock muscles.$Raise your hips up to create a straight line from your knees to shoulders.$Squeeze your core and try to pull your belly button back toward your spine.$Slowly raise and extend one leg while keeping your pelvis raised and level.$Hold.$Return to the starting position with knees bent.$Perform the lift with the other leg.</t>
-  </si>
-  <si>
     <t>BICEP CURLS</t>
   </si>
   <si>
-    <t>Stand with hands and feet shoulder-width apart. Grip the barbell palms facing down (pronated grip) while keeping your body straight and chest lifted.$Holding the upper arms stationary, exhale and lift the bar toward your shoulders bending at the elbows.$Continue to curl the bar toward your shoulders until you feel a complete biceps contraction.$Slowly lower the bar with control to the start position.$Repeat the exercise for a determined amount of reps and sets.</t>
-  </si>
-  <si>
     <t>SCISSORS</t>
   </si>
   <si>
-    <t>Lie on your back with your knees bent, feet on the floor. Take a moment to breathe deeply. Feel the weight of your shoulders on the mat and lightly press the backs of your arms into the mat. Here you initiate the open chest and shoulder stability you will need later in the exercise.$Bring your knees toward your chest and roll your hips up off the mat so that you are in an upside down ball position, resting on your shoulders. Cup the back of your pelvis with your hands and have your elbows directly under your hips.$Extend your hips and your legs so that you are on a long diagonal. The legs are together. Your lumbar area is not flexed, it is slightly extended making this is a little bit scary position. This is the part that makes this exercise more advanced and different than just supporting yourself upside down. You will be most successful if you think of lengthening and narrowing through your whole powerhouse.$Before moving on, make sure your chest is still open and your neck is long. Drop your shoulders if you need to, and get support from the backs of the upper arms.$Scissor your legs open, equally away from each other. The tendency is to bring the overhead leg back too far, and not take the risk of extending the leg that is moving away toward the floor. Work on that gently over time.$Pulse the legs twice in the open position and switch legs. Only the legs move. The pelvis stays absolutely stable.$Repeat the scissor action 6 times.$Bring your legs together overhead and roll down with control, as you would return from roll over.$The next exercise in the classical sequence is the bicycle exercise.</t>
-  </si>
-  <si>
     <t>STANDING SIDE BENT</t>
   </si>
   <si>
@@ -568,69 +373,39 @@
     <t>Hips,Glutes</t>
   </si>
   <si>
-    <t>Lying on your side, check that your ankles, knees, hips, shoulders, and ears are aligned.$Move your legs slightly in front (forming this "banana shape" helps balance and protects your lower back).$Prop your head on your hand or stretch your bottom arm out to the side and rest your head on it. Your arm placement is just for balance; you should be engaging your core to lift your legs.$Pull your abdominal muscles in.$Inhale, allowing your body to elongate as the breath moves down the full length of your spine.$As you exhale, engage your abdominals and lift your legs a few inches off the mat.$Focus on keeping your inner legs together from your sit bones to your heels.$Inhale as you lower your legs back down to the mat, elongating your body in a controlled movement.$Aim for 5 to 8 reps, then turn to your other side and repeat.</t>
-  </si>
-  <si>
     <t>KNEE TUCKS</t>
   </si>
   <si>
-    <t>Get in a "tabletop position" on your yoga mat with your knees positioned on the mat under your hips and your hands positioned on the mat under your shoulders, the stability ball behind your feet. Check your form here—your body should form a straight line from your tailbone to the crown of your head. Engage your abdominals, pulling your belly button toward your spine.$Place one leg at a time on top of the stability ball, so that the ball is positioned somewhere between the top of your feet (at the ankle joint) and the top of your shins (without interfering with your knees' ability to bend). The closer to your body the ball is, the easier it will be to maintain your balance. Also, adjust the width of your legs as needed. The closer your feet are together, the more challenging it will be to maintain your balance. Separate your legs slightly for greater stability.$Take a breath in when you feel sufficiently balanced, and check your form to make sure your core is engaged and your body is forming a straight line from heels to head. maintain your shoulders over your wrists for the entirety of the movement Press your feet and shins down into the stability ball and use your abs to help draw the ball toward your chest as you bend your knees and tuck your lower body up to your torso. Bring your knees as close to your chest as you comfortably can. Exhale as you draw your knees forward.$Hold for a second, then extend your knees, rolling the stability ball away from your torso to return to the full plank position. Exhale as you roll the ball away from you.$Complete a full set of repetitions, then carefully remove one leg at a time from the stability ball, bringing your knees back to the yoga mat. From the tabletop position, rise to kneel, then stand.$The slower you go, the more controlled and advanced this movement will be.</t>
-  </si>
-  <si>
     <t>BALL PIKES</t>
   </si>
   <si>
-    <t>Take a plank position on the ball. The ball is positioned under your thighs. Your legs are extended straight behind you. Your shoulders are rotated back and down, away from your ears. Take a moment to find a place of true stability. Just like in plank on the floor, your abs are lifted and your body is in a long line. You will need to engage your legs and butt, hugging them to your midline for stability.$Walk yourself forward on your hands so that the ball is under your knees or the tops of your shins. You will need to play with this yourself to find the right distance to get to a pike. The further forward you go the higher your pike will be, but you will also be less stable so work up gradually.$Inhale.$Exhale and in one smooth, flowing motion, use your abdominal muscles to pull your hips up into a pike position (inverted V) where your hips are bent, legs straight, and arms extended to the floor. The ball will roll under your legs to be closer to your ankles. Keep your chest wide and your shoulders down so there is a lot of distance between shoulders and ears. Go slow and monitor your balance. Pressing your shins into the ball will help with stability.$Inhale: Use abdominal control to return to the plank position.$Repeat the pike three to six times$</t>
-  </si>
-  <si>
     <t>SINGLE LEG CIRCLE</t>
   </si>
   <si>
     <t>Hamstrings</t>
   </si>
   <si>
-    <t>Engage your core. Pull your abdominal muscles in, anchoring the pelvis and shoulders. Draw one knee in towards the chest and then extend it straight toward the ceiling.$Inhale and cross the extended leg up and over the body. It angles up toward the opposite shoulder and over the outstretched leg.$Exhale and lower the leg down towards the center line in a circling motion. Use control as you carry the open the leg out to the side and then sweep it around back to center at your starting position.$Do five to eight circles in this direction, then reverse, starting your circle by exhaling and then reaching your extended leg out to the side and then circling back toward and over the body.$Stretch, before switching legs, by climbing the hands up the outstretched leg to hold the ankle. Hold the position for three full breath cycles, gently pulling the leg closer and closer to you. Then repeat steps 1 to 4 on the opposite leg and finish with another stretch.$</t>
-  </si>
-  <si>
     <t>BARBELL SNATCHES</t>
   </si>
   <si>
-    <t>The first pull is essentially a deadlift with extra power from your hips. Using the strength in your glutes and hamstrings, stand up with the barbell and thrust your hips forward. Squeeze your glutes hard, but don’t bounce the barbell off of your hips. The bar should stay close to your body, grazing or nearly grazing your hips as it moves upward.$The second pull can be compared to a barbell shrug or an explosive upright row for the traps. With your hips still fully extended, continue to drive the barbell upward by shrugging your shoulders up to your ears. You may also come onto your toes at this point.$To send the barbell above your head, pull your elbows up high (imagine pulling them to ear-level) and quickly flip them over so that your palms face forward. Lock out at your shoulders and elbows. At this point, it’s important to prevent the weight from continuing to move backward. If you don’t stop the weight by locking out your shoulders, the bar will continue its path, potentially injuring you or pulling you down with the weight.$Catch the barbell in a power stance (knees slightly bent, like a quarter-squat) or an overhead squat, whichever is more comfortable for you. Make sure your elbows and shoulders are stacked and locked out. With your core tight, step your feet to a natural standing position. Now the rep is complete.$Finally, you can bring the barbell back to the ground. Do so with control. Don’t just drop the barbell from above your head. First, bring the bar back to hip level. From there, set it down as if you are completing a deadlift. You can go back in for another rep after resetting your start position, or take a rest.$</t>
-  </si>
-  <si>
     <t xml:space="preserve">BARBELL THRUSTER </t>
   </si>
   <si>
-    <t xml:space="preserve">As you come out of the bottom of the squat, squeeze your glutes to create a full hip extension. Begin pressing the barbell up as you do this. Power from the hip extension should create momentum that helps send the barbell upward. $Continue pressing up until your arms fully extend above your head. Think about pressing into the barbell and activating your lats. Be careful not to over-extend your lower back—if you do this, you might need to lower the weight or practice engaging your core. $After locking out at the top, lower the barbell back to the front-rack position. Use control so you don’t bump or bruise your collarbones. $When the barbell once again touches your shoulders, you can descend into the front squat. Use the barbell as your cue: If you start to squat before the barbell touches your shoulders, you may get off-kilter and compromise your form. </t>
-  </si>
-  <si>
     <t>DRAGON FLAG</t>
   </si>
   <si>
-    <t>Get into proper position by locking your arms in a fixed overhead position. You can do this on a bench, with your hand next to your head and gripping the sides of the bench, or you can grip a stable object overhead. Some people use kettlebells or a barbell, but using something fixed and stable is a bit more practical, and quite a bit safer.$Contract your torso and drive your legs up as if you are performing a reverse crunch, but keep your body rigid from your shoulders to toes, and avoid bending the hips. Point your toes to help maintain proper body alignment.$Once lifted, slowly lower your legs in a controlled motion without letting any part of your body touch the bench other than the upper back and shoulder. If you cave in, drop your hips, or arch your back, you don't have the strength yet and you should not continue the exercise.$Lower your body until it is hovering just over the bench.$Repeat as possible. Once you break form, you are done.$</t>
-  </si>
-  <si>
     <t>AB TUCK</t>
   </si>
   <si>
-    <t>Place both hands behind your body, palms facing down and fingers facing forward (towards your toes).$Lean back slightly placing some weight on your hands. The elbows will bend to allow you to shift back. Keep a long, tall spine with shoulders relaxed.$Bend the knees, bringing them off the floor and drawing them in towards your chest.$Keep your abdominal muscles engaged and back strong as you extend the legs to a straight position. You might lean back a little bit more as you extend the legs.$Bring your knees back into the chest and repeat the sequence.</t>
-  </si>
-  <si>
     <t>HIP HINGE</t>
   </si>
   <si>
     <t>Rod</t>
   </si>
   <si>
-    <t>Stand with your feet slightly more than shoulder-width apart, toes pointed slightly outward. $Place the dowel vertically on your back. Grasp one end with your right hand in the natural curve of your neck and the other end with your left hand in the small of your back. Make sure the dowel is touching the back of your head, your upper back, and the area where your low back meets your butt (sacrum).$Shift your weight to your heels and push your hips back towards the wall behind you while you hinge forward at the hips. To get a better idea of how to do this, think about sticking your butt out behind you. As you hinge, the dowel should not lose contact with those three points. If it does, you know you’re doing the move incorrectly.$Lower your torso until it’s midway between vertical and parallel to the floor. Pause. Keep a slight bend in your knees during the downward and upward phase. $Reverse the movement by contracting your glutes and pushing your hips forward and upward to return to the starting position. $</t>
-  </si>
-  <si>
     <t>ASSISTED DIPS</t>
   </si>
   <si>
-    <t>Before adding any weight, stand or kneel on the levered platform, grasping the handles of the machine with straight elbows.$Without arching your back, see how far you can lower yourself without assistance. If you're able to bend your arms 90 degrees and push yourself back to a straight arm position, see how many more you can do. This is your baseline.$Now move the pin to the weight plate you think you need, and try again. If you select the right weight, you should be able to lower yourself smoothly and return to the starting position with moderate effort.$Start by doing at least eight to 10 reps, keeping your body centered and your core muscles taut.$After completing the first set of 8 to 10 reps, rest for 60 seconds before starting the next set and the set after that. If needed, lower the weight with each set to maintain proper form.</t>
-  </si>
-  <si>
     <t>WRIST CURL</t>
   </si>
   <si>
@@ -640,24 +415,15 @@
     <t>Dumbell, Bench</t>
   </si>
   <si>
-    <t>Assume a seated position. A bench will work best, but you can also use a chair with armrests.$Place your hand-held weights at your feet. You can use two dumbbells or one weighted barbell. Individual dumbbells are recommended for beginners so you can focus on one forearm at a time.$Grab the weights and hold them with your palms facing up. Be sure to grasp them tightly but comfortably.$Sit with proper posture to avoid slouching. Your legs should be about shoulder-width apart and your feet should be flat on the ground. Rest the back of your arms on your knees or the armrests of your chair. $Adjust your arms so your wrists are hanging over the edge of your legs or armrests.$Slowly bend your wrist up and down to engage the forearms. Each movement should be slow and controlled to prevent the hand-held weights from straining your wrists. $Exhale as you curl your wrists upward and inhale as you curl your wrists downward. Your forearms should be stationary during this exercise. Only your wrists should be moving.$Repeat the exercise up to 15 times per arm in a set. Take a short break in-between sets and resume the exercise when ready or switch arms.$To release the exercise, return to the starting position. Slowly lower the weights to the floor.$</t>
-  </si>
-  <si>
     <t xml:space="preserve">SINGLE LEG STANCE </t>
   </si>
   <si>
     <t>Chair</t>
   </si>
   <si>
-    <t>Hold on to the chair back with both hands.$Lift one leg off the ground, slowly.$Maintain your balance while standing on one leg for 5 seconds.$Return to the starting position and repeat 5 times. Try to increase the time spent standing on one leg.$Perform with opposite leg.</t>
-  </si>
-  <si>
     <t>TAP TOES</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand in front of a step, box (plyo-boxes work great), platform, or BOSU ball that is at least 10 to 12 inches tall. Arms remain at your sides. $Raise your right foot and place the ball of your foot on the platform. Depending on the equipment you use, your foot might be angled, rather than flat. But your left foot will remain flat on the ground. This is your starting position.$Push off the ground with your left foot and switch legs mid-air, with your left foot now touching the platform and your right foot on the ground. $Arms can remain at your sides or alternate with your legs like you would do when running.$Repeat alternating toe taps slowly until you feel comfortable with the movement pattern, and your technique is correct. $Speed up the pace and alternate between your left foot and right foot tapping the edge of the platform for the desired amount of time, typically 30 to 60 seconds. </t>
-  </si>
-  <si>
     <t>THUNDERBOLT POSE</t>
   </si>
   <si>
@@ -689,6 +455,240 @@
   </si>
   <si>
     <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>Sit on the edge of the chair and grip the edge next to your hips. Your fingers should be pointed at your feet. Your legs are extended and your feet should be about hip-width apart with the heels touching the ground. Look straight ahead with your chin up. -Press into your palms to lift your body and slide forward just far enough that your behind clears the edge of the chair. -lower yourself until your elbows are bent between 45 and 90 degrees. -Slowly push yourself back up to the start position and repeat. Control the movement throughout the range of motion. -Begin with 3 sets of 10 repetitions and increase your sets and reps over several weeks as you build muscle and strength in your triceps. -</t>
+  </si>
+  <si>
+    <t>Stand with your feet slightly wider than hip-distance apart, your toes angled slightly outward. -Hold a kettlebell in both hands at your chest, gripping the handles as though you were cupping a goblet—one hand on either side of the handles. Bend your elbows so the goblet is positioned right at the center of your chest. -Warm-up by using a lighter (or no) kettlebell to get a sense of the movement. Then, progress to a heavier weight for your full set. -Engage your core and look straight ahead—you want to keep your back neutrally aligned and your eyes facing straight ahead throughout the squat. -press your hips back and begin bending your knees to perform the squat. Inhale as you perform this downward phase. -Keep the kettlebell close to your body during the movement. -Focus on keeping your chest tall as you continue pressing your hips back and lowering down. The goal is to get your hips below parallel with your knees. -Make sure your weight remains evenly distributed across your feet, or slightly more weighted towards ur heels—you shouldn't come up on your toes as you squat. -Check your position at the bottom of the squat—your elbows should be positioned on the inside of either knee at the lowest point of the squat. This helps ensure that your knees remain aligned with your toes as you move into the deep squat position. -Press through your heels and reverse the motion to return to the starting position. Exhale as you rise, and be sure to press your hips forward at the top of the squat to more fully engage your glutes. -Complete a full set and carefully rack the kettlebell. Always avoid dropping weights from a height. Repeat through as many sets as desired. -</t>
+  </si>
+  <si>
+    <t>Brace your abdominal muscles and push the platform away with your heels and forefoot. Your heels should remain flat on the footplate. The front of your foot or toes should never be used exclusively to move the pad forward. -While exhaling, extend your legs and keep your head and back flat against the seat pad. Extend with slow control rather than with an explosive movement. -Pause at the top of the movement. Do not lock out your knees and ensure that they are not bowing out or in. -While inhaling, return the footplate to the starting position by gradually bending the knees. Keep the feet and back flat throughout -If you have never done leg presses before, start modestly with three sets of 10 leg presses. You can advance from there as you build strength. -</t>
+  </si>
+  <si>
+    <t>Stand with your feet shoulder-width apart. -Place a barbell of appropriate weight on your shoulders. If you're just starting with the exercise, begin with light weight. The bar of the barbell should rest on your trapezius muscles of the upper back near your shoulders. -Brace your abdominals and take a good breath in. -Exhale as you hinge at the hips. It should feel as if you are sending your hips backward (as if trying to shut a car door with your butt) or pretend that someone has a rope around your hips and is pulling them backward. -Inhale and focus on maintaining a straight back. Keep the arch of your lower back tight as you would when lifting from the floor. -Exhale. Make sure your head and chest are up and forward. Check that you aren't curling your back forward. -Inhale smoothly as you return to the starting position. -</t>
+  </si>
+  <si>
+    <t>Exhale while pulling yourself up so your chin is level with the bar. Pause at the top. -Lower yourself (inhaling as you go down) until your elbows are straight. -Repeat the movement without touching the floor. -Complete the number of repetitions your workout requires. -</t>
+  </si>
+  <si>
+    <t>Grasp the bar with a wide grip with an overhand, knuckles up grip. Other positions and grips are possible but start with this standard position. -Pull the bar down until it's approximately level with the chin. Exhale on down motion. While shifting just slightly backward is OK, aim to keep your upper torso stationary. Keep your feet flat on the floor and engage your abs as you pull. The bottom of the motion should be where your elbows can't move downward any more without moving backward. Be sure to stop at that point and do not go lower. -Squeeze the shoulder blades together while maintaining square shoulders. -From the bottom position with the bar close to your chin, slowly return the bar to the starting position while controlling its gradual ascent. Don't let it crash into the weight plates. -Continue until you complete eight to 12 repetitions in a set. Rest, then continue to complete your program of sets. -</t>
+  </si>
+  <si>
+    <t>Stand with feet shoulder-width apart holding dumbbells at your sides. -Press the hips back in a hinge motion bringing your chest forward almost parallel to the floor. -Allow the weights to hang straight down, palms facing each other. -Maintain a tight core, straight back, and slight knee bend. -Exhale and raise both arms out to your side, squeezing the shoulder blades together. -Keep a soft bend in your elbows as you pull your shoulder blades toward the spine. -Inhale as you lower the weight back to start position. -Avoid hunching your shoulders up during the movement. -Keep your chin tucked to maintain a neutral spine during the exercise. -Focus on feeling the shoulders blades coming together with proper breathing from start to finish.Repeat the exercise for 8 to 12 repetitions, or as determined per set. -</t>
+  </si>
+  <si>
+    <t>Pull the handle and weight back toward the lower abdomen while trying not to use the momentum of the row too much by moving the torso backward with the arms. -Target the middle to upper back by keeping your back straight and squeezing your shoulder blades together as you row, chest out. -Return the handle forward under tension to full stretch, remembering to keep that back straight even though flexed at the hips. Repeat the exercise for the desired number of repetitions. -</t>
+  </si>
+  <si>
+    <t>Place one dumbbell in each hand. Rotate the hands so that the palms face the thighs. By doing so, you'll notice that the thumbs face forward. -Keeping the elbows in a fixed position, flex (bend) at the elbow so the lower arms lift up and toward the shoulders. Keep the shoulders relaxed as you work. Keep your grip firms and wrists in line with the forearm. -At the top of the movement, thumbs will be close to the shoulders, palms facing in toward the midline of the body. -Lower the weights to the starting position. -</t>
+  </si>
+  <si>
+    <t>Set up in quadruped position on your yoga mat. Check your hand and knee placement. Your hands should be positioned directly under your shoulders and your knees directly under your hips. Flex your ankles, tucking your toes into the floor. Engage your core, drawing your belly button toward your spine, and make sure your back is straight and flat from the base of your pelvis to the top of your head. -Shift your weight slightly to the right side, keeping your torso completely stable as you do so—your hips and shoulders shouldn't twist or rotate as you shift. -Press your left foot up toward the ceiling, keeping your knee bent at a 90-degree angle as you fully extend your left hip. Exhale as you perform the hip extension. Again, make sure your torso remains flat and stable—don't allow your left hip to rotate out or up as your hip extends. -Slowly lower your left knee back toward the floor, stopping just before it touches down. Inhale as you lower your knee down. -Continue a full round of repetitions to one side before Switching to the opposite side. When you've finished a set, simply sit back on your heels and rise to stand. -</t>
+  </si>
+  <si>
+    <t>Stand with feet hip-distance apart. Place the barbell across your chest at shoulder height so that it rests at your collar bone. Hands should be placed on the bar slightly wider than shoulder-distance apart with palms facing forward. Elbows are relaxed below and slightly in front of the bar. Legs should be straight but not locked. Knees and ankles should be aligned directly beneath the hips. -Keeping the bar at your chest and keeping the torso strong, bend the knees into a slight dip. Then push through the feet and start to straighten the legs. This movement is done quickly to gain momentum. -Once you reach full hip extension, press the bar up. You'll have to move the head slightly back to make room for the bar to pass. -Extend the arms fully overhead, keeping the torso properly aligned (it should not feel like the chest is extended forward or the hips are arching back). Once the bar has moved up past your head, move it back through its original position and slightly forward. -Return the bar to the starting position to begin another repetition. -</t>
+  </si>
+  <si>
+    <t>Stand tall, a dumbbell in each hand. Arms are at your sides, palms facing in. Position your feet roughly hip-distance apart. Check your posture—roll your shoulders back, engage your core, and look straight ahead. -Raise your arms simultaneously just a couple inches out to each side and pause. This momentary pause should help ensure you disengage your trapezius muscle from the movement, targeting the deltoids as intended. -Lift the dumbbells up and out to each side, keeping your arms almost completely straight, stopping when your elbows reach shoulder-height and your body is forming a "T" shape. Breathe in as you lift. -Pause and hold for a second at the top of the movement. -Lower the weights slowly (take about twice as long to lower the weights as you took to lift them), bringing your arms back to your sides. Breathe out as you lower the dumbbells.</t>
+  </si>
+  <si>
+    <t>Stand with hands and feet shoulder-width apart. Grip the barbell palms facing down (pronated grip) while keeping your body straight and chest lifted. -Holding the upper arms stationary, exhale and lift the bar toward your shoulders bending at the elbows. -Continue to curl the bar toward your shoulders until you feel a complete biceps contraction. -Slowly lower the bar with control to the start position. -Repeat the exercise for a determined amount of reps and sets. -</t>
+  </si>
+  <si>
+    <t>Grasp the handles of the suspension trainer, one per hand. Step backward, away from the point where the suspension trainer is anchored until the suspension trainer and your arms are forming a straight line, your elbows extended, your arms reaching straight out in front of your chest. -Position your feet about hip-distance apart. Roll your shoulders back and "lock them" in place so you're standing with good posture. Engage your core and start leaning back, your weight in your heels, until your arms (holding the suspension trainer handles) are keeping you from falling backward. Your body should look like it's in an upright plank position. Keeping this plank-like position, with your core activated and your shoulders "locked" in place so they don't roll forward, start stepping your feet forward so your body begins creating an angle with the ground. Aim for a position where your body is angled somewhere between 30 and 60 degrees with the ground. Your feet and your arms are supporting your body weight, but your cor -remains engaged to prevent any sagging of the hips. This is the starting position. -Turn the handles of the suspension trainer inward so your palms are facing each other. Make sure your hands are positioned chest-width apart. The goal will be to keep them in this position throughout the exercise. Take a breath in. -Use the muscles of your upper back, arms, and shoulders to pull your chest and torso up toward the handles of the suspension trainer, bending your elbows as you pull yourself up. Squeeze your shoulder blades together and keep your elbows close to your body and your palms facing in. Exhale as you go, and keep pulling until your chest is even with your hands. -Hold the top position for a second then reverse the movement and slowly lower yourself back to the starting position as you inhale. You may find yourself tempted to "drop" down to the starting position, but don't. Lower yourself slowly—aim for a speed double that of the upward phase—to maximize the strength-building benefits. Also, avoid allowing your shoulders to "collapse" or "slouch" forward at the bottom of the movement—they should remain engaged and "locked" in place, maintaining good posture throughout the row. -Complete a full set of repetitions, then exit the movement by walking your feet backward until you're standing upright. If you find you can only complete a few good repetitions at a given body angle, feel free to make adjustments to the angle of your body as you perform each set. For instance, if you start a set and it feels too easy, walk your feet forward to make it more difficult. Likewise, if you perform a few repetitions and it starts to feel too hard, walk your feet back a step or two to make the exercise easier.</t>
+  </si>
+  <si>
+    <t>Take your feet off the support, allowing your legs to dangle. Inhale. -Slowly bend your knees and lift them toward your chest while exhaling. The motion should be controlled and deliberate as you bring your knees up until your thighs are parallel to the floor. -Continue to bring your knees up as high as you can without rounding the upper back off of the backrest and looking down. You will work the abs more once your knees are higher than parallel to the floor. -Slowly return your legs to the starting position, while inhaling.</t>
+  </si>
+  <si>
+    <t>Start by bracing your abdominals. -Tuck your elbows in at your sides and position your feet slightly apart. -Inhale. Push down until your elbows are fully extended but not yet in the straight, locked position. Keep your elbows close to your body and bend your knees slightly on the pushdown. Resist bending forward. Try to keep your back as straight as possible as you push down.1﻿ -As you exhale, return to the starting point using a controlled movement. Try not to crash the weights. -For beginners, aim to complete 4 sets of 8 reps.</t>
+  </si>
+  <si>
+    <t>With a dumbbell in each hand, bend over at about a 45-degree angle (no farther). Keep the back straight throughout the exercise. Brace your abdominals and breathe in. -Lift the weights straight up, exhaling. While lifting, the arms should go no higher than parallel with the shoulders—slightly lower than the shoulders is fine. While lifting, try to keep the wrists from excessive extra movement down or to the side. Do not squat down and up after the initial pose. No movement of the legs occurs throughout the exercise. -Lower the weights in a controlled manner while inhaling. -Remain bent over until all repetitions are complete</t>
+  </si>
+  <si>
+    <t>Position the feet shoulder-width apart (or not much more) with toes under the bar. The feet point straight ahead or they can angle out slightly. Heels should stay flat on the surface. When you lift, the bar will travel close to the shins and may even graze them. Your head (and eyes) should reflect a neutral spine position—neither crooked noticeably up or down, although a very slight upward tilt is not uncommon or unsafe when putting the effort in. -Stabilize the abdominal muscles by bracing them. -Squat down, bending at the knees. The form for descending to the bar is similar (but not identical) to the squat, with back straight or arched in slightly and not rounded at the shoulders or spine. -Grasp the bar just outside the line of the knees with an overhand or mixed grip. -Lift the bar by pushing upward with the legs from the knees. Breathe out on exertion. Be careful not to raise the hips first so that the trunk moves forward and the back becomes rounded. Don’t try to haul the bar up with the arms. The arms stay extended under tension while gripping the bar as the legs push up. Think of the legs and shoulders moving upward in unison with the hips the balancing point. -The bar should almost graze the shins and come to rest around thigh level as you reach full height. Pull the shoulders back as much as possible without bending backward. -Lower the bar to the floor with a reverse motion ensuring a straight back again. -Repeat for your desired number of repetitions.</t>
+  </si>
+  <si>
+    <t>Stand straight with both feet on ground and legs straight, hands hanging down in front of you. -Press into the supporting leg as you slide the non-supporting leg back, allowing your upper body to move forward with your hip as the hinge. If at any point during the exercise you start to lose balance, simply touch the free-floating leg lightly to the floor to regain balance. -Keep the support (balancing) leg straight or allow a slight, gentle bend to the knee. Keep folding forward until your fingers reach the kettlebell handle, then grab the handle by wrapping your fingers around it. -Complete the movement by pulling with the muscles of the backside of your body—the hamstrings and butt muscles. -Complete the movement with your body upright and the support leg fully extended. Make sure to finish the full range of motion by pushing your hips forward at the top of the movement, so that your butt muscles are firm. -Take a slight pause to assure you have full control of your balance, then lower the kettlebell back to the floor under control.</t>
+  </si>
+  <si>
+    <t>Start by lying flat on your stomach. -Adjust the roller pad so that it rests comfortably a few inches under your calves, just above the heels. Check to make sure the pads aren't too high up on your calves as this can place pressure on your Achilles tendon and reduce your range of motion. -Stretch your legs out fully. On an inhale, lightly grasp the support handles on each side of the machine. -Lift your feet smoothly as you exhale, keeping your hips firmly on the bench. -Inhale as you flex your knees and pull your ankles as close to your buttocks as you can. -Hold this position for a beat, allowing yourself to make sure you are focused as you prepare to lower your legs. -Inhale fully as you return your feet to starting position in a smooth, slow, controlled movement. -Repeat for 8 to 12 reps.</t>
+  </si>
+  <si>
+    <t>Lay flat on the mat with your body positioned in a straight line from the top of your head, down your spine, and into your tailbone. -Place your hands behind your head, elbows out. -Inhale as you cross your left leg over your right resting your left ankle your right knee. -Exhale as you contract your abdominal muscles and slowly raise your upper body off the mat (similar to a basic crunch). -Slowly twist your torso to your left as you squeeze your abs, bringing your right elbow to your left knee until they touch. -Inhale as you slowly lower your upper body back down to the mat.</t>
+  </si>
+  <si>
+    <t>Place your hands folded behind your neck. -Bring your legs up, extending them perpendicular to the floor with knees slightly bent. Keep your lower spine flat on the floor. -Contract your abs in preparation for the lift. -Begin by slowly curling your upper body, lifting your shoulder blades off of the floor. Exhale on the upward motion. Keep your legs straight and pointed upward; don't let them sway or list to one side. -Continue curling your body upward using your core muscles. Don't lead with the head by pulling on the neck, and keep your chin up. -When your shoulder blades are off of the floor, pause and hold the position a moment or two. -Begin lowering the upper body by uncurling slowly. Inhale on the downward motion. Don't allow your legs to sway, and don't let them crash back to the floor. This should be a slow and controlled descent. -Keep your legs in the fixed starting position. -Do 3 sets of 12 to 16 reps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lie face-up on the floor. Bend your knees so your feet are flat on the floor. Plant your feet firmly, tucking them under a bench or some sort of other brace if you have to. If you have a partner, you can have them hold your feet down (it’s worth noting that the ideal way to perform sit-ups is without a foot brace—you may want to work on strengthening your core until you get to that point before attempting sit-ups, for optimal results).  -Cross your arms over your chest. Your left hand should rest on your right shoulder and vice versa. Don’t put your hands behind your head, as this can cause you to pull on your neck.  -Engage your core. To do so, take a deep breath and think of drawing your belly button to your spine. Your core should be fully engaged before you start your first rep.  -Use your ab muscles to lift your back off of the ground. Your tailbone and hips should remain static and pressed into the floor until you’re fully upright. It may help to think about lifting one vertebra at a time, rather than lifting your entire back all at once. This is where the sit-up gets its other names, curl-up and roll-up—picture yourself curling up one back bone at a time, until you’re sitting all the way up. -With immense control, lower yourself back to the starting position. This time, picture yourself uncurling one vertebrae at a time, starting with your lower back. Do not thud into the floor.  -Once you’re lying face-up again, re-engage your core to start another rep. Repeat until you finish your set. </t>
+  </si>
+  <si>
+    <t>Start in a supine position (lying on back) on an exercise mat. -Keep your knees bent and feet flat on the floor. -Maintain your shoulders and upper body firmly against the floor. -Outstretch your arms and press them into the floor to help with balance during the movement. -Engage/tighten the abdominal muscles. -Slowly rotate the knees to one side with control, working within your range of motion. Your feet will shift but remain on the floor. -Hold the position for 3–5 seconds. -Engage/tighten the abdominal muscles to move your legs to the opposite side. -Hold for another 3–5 seconds. -Stay focused and breathe normally through the exercise. -Repeat the exercise for a determined amount of reps, such as 10 times on each side.</t>
+  </si>
+  <si>
+    <t>Inhale to bring the legs into roll over position. Use a deepening scoop of your abdominal muscles and some help from the press of your arms to bring your legs over your head, parallel to the floor. Your back is curved so that the weight is on your shoulders and not on your neck. -Exhale to sweep the legs up. Keep your chest open and the backs of your arms pressing down as you lift your legs up so that you are as close as you can get to perpendicular to the floor. You are on your shoulders, not your neck, getting help from the press of your shoulders and arms on the mat. This is a strong powerhouse move requiring hip extension with upper body flexion. Think "up, up, up" and shoot up through the midline of your body. -Inhale to bring your legs back to parallel to the floor. Do not go all the way to the floor. -Exhale to roll down with straight legs, vertebra by vertebra, until you are back to the start position. -Repeat the exercise 2 more times.</t>
+  </si>
+  <si>
+    <t>Extend one leg from the hip so that your foot lifts off the mat a few inches. Your foot can point softly as it is released from the mat. As you extend your leg, your hip will lift slightly, but the challenge is to keep the rest of your body stable in plank position. This requires extra work from your abdominals, shoulders, and back. -Return your foot to the mat and extend the other leg. -Repeat the lift five to seven times on each side.</t>
+  </si>
+  <si>
+    <t>Lie on your right side, legs extended and stacked from hip to feet. The elbow of your right arm is directly under your shoulder. Ensure your head is directly in line with your spine. Your left arm can be aligned along the left side of your body. -Engage your abdominal muscles, drawing your navel toward your spine. -Lift your hips and knees from the mat while exhaling. Your torso is straight in line with no sagging or bending. Hold the position. -After several breaths, inhale and return to the starting position. The goal should be to hold for 60 seconds. Change sides and repeat.</t>
+  </si>
+  <si>
+    <t>A spotter or smith machine is recommended for safety. -Use a decline bench station or decline bench/power rack combination. -Position the barbell at the correct reach level on the rack (you are able to grip/lift the bar off rack with assistance). -Load weight resistance appropriate to your fitness level on the barbell. -Secure your feet at the end of the decline bench and slowly lay down on the bench. -Avoid hitting your head on the bar as you lower your body down. -Grab the bar using a regular/standard, slightly wider than shoulder-width hand grip. -Unrack the weighted bar with spotter assistance. -Slowly lower the bar to your chest, inhaling during this part of the motion. -Raise the bar with an explosive push to start position, exhaling during this part of the motion. -Repeat the exercise for a determined amount of reps. -Tighten your core, keep chin tucked, exhale and lift your body up grabbing footholds to get off the bench.</t>
+  </si>
+  <si>
+    <t>Sit on the bench and lean back. Hold a dumbbell in each hand, with hands positioned at your shoulders, elbows bent and angled down below your ribs. Relax your neck against the bench. Keep your feet flat on the floor. -Brace your core and press both dumbbells straight up over your chest as you exhale. Keep your wrists straight (don't let them "cock" backward). At the top of the movement, the dumbbells should almost touch each other and your arms should be perpendicular to the floor. -Reverse the movement and slowly lower the dumbbells back to the top of your chest as you inhale. As you lower the dumbbells, your elbows should come down at roughly a 45-degree angle to your torso. They shouldn't splay out to the sides, pointing toward the side of the room. Instead, keep your elbows pointing to the floor. -Aim to complete sets of 8 to 12 reps. Start with one set and work up to two to three sets over time as you build strength. When you finish your set, safely exit the exercise by sitting up and placing the dumbbells on your knees before you stand up. Avoid dropping the dumbbells while you're lying on the incline bench.</t>
+  </si>
+  <si>
+    <t>Place one dumbbell in each hand. Extend your arms over your chest with the palms facing each other. Keep the elbows slightly bent and soft. -Keep a strong back and core while you inhale and extend the weights back and over your head. Take about 3–4 seconds to reach a fully extended position where the weights are behind (but not below) your head. Keep the elbows soft. -Once you reach full extension, exhale slowly and return your arms to the starting position over your chest.</t>
+  </si>
+  <si>
+    <t>Stand with feet shoulder width and knees slightly bent. -Bend your knees and descend to a full squat position. -At the bottom of the squat, powerfully explode straight up bringing your knees toward your chest while in midair. At the top of the jump, your thighs should touch your torso. -Release your legs, control your landing by going through your foot (toes, ball, arches, heel) and descend into the squat again for another explosive jump. -Upon landing immediately repeat the next jump.</t>
+  </si>
+  <si>
+    <t>Stand on one leg with your foot pointing straight ahead and the knee of the other leg slightly bent. You can have your arms extended for balance or kept at your sides. Roll your shoulder blades back and keep your back straight. Keep your weight centered over the ball of your foot, your upper body erect, and your head facing forward. -Raise the non-supporting foot from the floor slightly. -Lower to a squat position, keeping the knee of the supporting leg centered over the ball of the foot. Start with shallow squats and work your way closer to the ground. -Repeat for 10 squats on each leg. Aim for three sets.</t>
+  </si>
+  <si>
+    <t>Stand in a split stance with the right foot forward and the left leg back The feet should be about 2 to 3 feet apart, depending on your leg length. The split stance will require balance, so hold onto a wall or chair if you feel wobbly Before you lunge, make sure your torso is straight and that you’re up on the back toe. -Bend the knees and lower the body down until the back knee is a few inches from the floor. -At the bottom of the movement, the front thigh should be parallel to the floor and the back knee should point toward the floor. The weight should be evenly distributed between both legs. -Push back up, keeping the weight in the heel of the front foot. -Repeat for all reps before switching sides.</t>
+  </si>
+  <si>
+    <t>Lie down on your side on an exercise mat with legs extended and hips in a parallel line, one on top of the other. -Bend your lower arm underneath your head, allowing the full weight of your head to rest on your forearm so it’s in line with your vertebrae.  -Relax your feet into a neutral position, perpendicular to your legs.  -Exhale while raising your upper leg to just above your hip joint. When you feel your hips and back start to tense, stop and hold the position for one to two seconds. -Inhale and slowly lower your leg to its starting position, keeping it straight and stacked directly above the lower leg.  -Repeat for a total set of 10 raises. -Flip over to your opposite side and repeat the process with your other leg.  -Continue alternating legs for three sets of 10 raises on each leg.</t>
+  </si>
+  <si>
+    <t>Hold weights of the same size at your sides with your arms slack. -Spread feet shoulder-width apart, then slowly raise your heels, keeping your knees extended (but not locked). Pause for one second. -Slowly lower your heels back to the ground. -Repeat 10-30 times.</t>
+  </si>
+  <si>
+    <t>Grasp a barbell or dumbbells and allow it to hang in front of you at the length of your arms. Your palms should be facing your body. -Standing up straight, adjust your grip so that your hands are about in line with the thighs. Shoulder-width apart (no closer) is recommended for wrist and shoulder safety. -Breathe in and brace the abdominals, keep the back straight, chest up, and eyes focused forward. -Lift the barbell straight up toward the chin, leading with the elbows and keeping the bar close to the body. Breathe out during the effort. Your arms should go no higher than parallel with the shoulders. Slightly less is OK. -Pause at the top of the lift. -Return the barbell back to the starting position, breathing in as you lower it. -Repeat the move for your defined number of repetitions.</t>
+  </si>
+  <si>
+    <t>Stand with feet about shoulder-width apart. Keep the back straight and feet planted flat on the floor. Your arms holding weights should hang down. -Hold the dumbbells across the thighs horizontally, palms facing back toward the thighs. Ensure that you have a firm grip. -Brace the abdominal muscles. -Lift the weights upward, inhaling, with arms out in front and palms facing down. Keep a slight bend in the elbows to reduce the stress on the joints. Pause when the arms are approximately horizontal to the floor and feel the contraction in the shoulders. -Return the dumbbells to the starting position at the thighs with a slow and controlled motion while exhaling. -Repeat the exercise for the number of sets and repetitions in your program.</t>
+  </si>
+  <si>
+    <t>With feet no more than hip-width apart, bend your knees to squat straight down. Keep your weight on your heels. -Shift weight from heels to toes as you begin your jump, quickly push upward and sideways toward the other side of the line. Land softly and absorb the shock by squatting deeply. Repeat jumping back and forth over the line while keeping your shoulders and hips square and facing forward. You can vary your landing so that you land and rebound on both feet at once, or land on one foot first and rebound with a short double-step. -Perform for 30- to 60-second intervals. In a workout, rest for 60 to 90 seconds, then repeat for three sets. Or, add them to a circuit training routine.</t>
+  </si>
+  <si>
+    <t>Shift your weight into the left foot and place the right foot into the first square of the ladder. Put the toes down then shift your weight onto that (right) foot. -Place the left foot into the same (first) square of the ladder. Put the toes down first then shift your weight onto that (left) foot. -Repeat the movement in #1 stepping into the second square of the agility ladder. -Repeat the movement in #2 stepping into the second square of the agility ladder. -Continue the sequence advancing forward in the agility ladder, moving into the third square, the fourth square, and so on.</t>
+  </si>
+  <si>
+    <t>Kneel with knees hip-width apart and hands firmly on the ground about shoulder-width apart. Brace the abdominals. -Practice lifting one hand and the opposite knee just an inch or two off the floor while balancing on the other hand and knee and keeping your weight centered. -When you feel steady and ready to move on to full range of motion, point the arm out straight in front and extend the opposite leg behind you. You should form one straight line from your hand to your foot, keeping hips squared to the ground. If your low back begins to sag, raise your leg only as high as you can while keeping your back straight. -Hold for a few seconds, then return your hands and knees. -Switch to the other side. -Keep the abs engaged throughout the entire exercise, and work to minimize any extra motion in your hips during the weight shift.</t>
+  </si>
+  <si>
+    <t>Stand tall, your feet roughly hip-distance apart. Check your posture—your ears should be aligned over your shoulders, hips, knees, and ankles, your abdominals engaged. -Take a breath in, then as you exhale, look down at the ground and start reaching your hands toward the floor in front of your feet, allowing your back to bend forward, rolling down one vertebra at a time. Allow your knees to bend slightly, as needed, to enable your hands to reach the ground. -Place your hands on the floor in front of your feet. Inhale and walk your hands forward, one at a time, allowing your heels to lift off the floor as your body begins to straighten. When your hands are directly under your shoulders, check your form—you should be in a full plank position with your core, chest, quads, triceps, and shoulders engaged, your body forming a straight line from heels to head. -Keep your legs relatively straight and begin walking your feet forward, one at a time, toward your hands. This should provide a nice stretch through your hamstrings, calves, and glutes as your hips start lifting toward the ceiling. Exhale as you step forward. -Stop when your feet are as close to your hands as you can comfortably bring them. Remember, you can bend your knees slightly to ease the stretch on your hamstrings, but try to keep them as straight as possible. -Return to standing by slowly rolling your back up from the hips, straightening one vertebra at a time. Inhale as you go. When you're back in the starting position, you've completed one repetition. Continue for time or repetitions, depending on your workout.</t>
+  </si>
+  <si>
+    <t>Begin to move forward by simultaneously moving the right hand and the left leg forward with a crawling motion. -Immediately after placing weight on the right hand and left leg, switch sides and move the left hand and right leg forward. -Keep the body relatively low and you continue in a crawling motion. Imagine that you are crawling beneath a low net.</t>
+  </si>
+  <si>
+    <t>Lie face down on a mat with your arms stretched above your head (like Superman) -Raise your right arm and left leg about 5 to 6 inches off the ground (or as far as you comfortably can) -Hold for 3 seconds and relax. -Repeat with the opposite arm and leg</t>
+  </si>
+  <si>
+    <t>Lie on the mat with your arms extended straight over your chest so they form a perpendicular angle with your torso. Bend your hips and knees 90-degrees, lifting your feet from the ground. Your torso and thighs should form a right angle, as should your thighs and shins. This is the starting position -Engage your core, maintaining contact between your lower back and the mat. You want to make sure your spine maintains this steady and neutral position throughout the exercise -Keep your right arm and left leg exactly where they are, then slowly reach your left arm backward, over your head and toward the floor as you simultaneously extend your right knee and hip, reaching your right heel toward the floor. Move slowly and steadily, breathing in as you perform the extensions, avoiding any twisting or movement of your hips and abs. Stop the movement just before your arm and leg touch the ground. -Reverse the movement and return your left arm and right leg to their starting positions. Move slowly and steadily, exhaling as you go. -Perform the same movements to the opposite sides, this time keeping your left arm and right leg steady as you extend your right arm and left leg. -Do the same number of repetitions on each side. When you complete a full set, simply return your feet to the ground and sit up.</t>
+  </si>
+  <si>
+    <t>Contract your abdominal muscles and core slowly and lift your legs up to an extended position at a 45-degree angle with your torso. -Reach your arms straight forward or reach up toward your shins as you are able. It's important to maintain good core posture and a strong spine throughout the movement and to avoid rounding the shoulders forward. Don't hold your breath—continue to breathe deeply during the movement. -Hold this V-shaped position for several seconds to begin. As you get stronger, hold the position longer. -Return to your starting position slowly while continuing to keep your abs engaged and tight. -Just before you reach the floor, stop and hold the position for a few seconds. -Repeat this entire movement several times.</t>
+  </si>
+  <si>
+    <t>Stand facing the box, your feet within roughly six inches of its side. Your feet should be about hip-distance apart, your knees and hips slightly bent in an athletic stance. -Bend your knees and press your hips back as you swing your arms behind you in a smooth motion. -Explode through the balls of your feet, jumping straight up into the air, swinging your arms up and forward as you fully extend your knees and hips to get as much height as you can with your jump. -At the height of your jump, bend your knees and hips to draw them forward to be able to land on top of the box. -Land with both feet at the same time atop the box, leading with the balls of your feet, following with your heels. Try to do this "softly," allowing your knees and hips to bend naturally to help absorb the shock of the landing. -Check your foot position—when on top of the box, your feet should be roughly hip-distance apart. -Step—don't jump—carefully off the box and reset for the next repetition.</t>
+  </si>
+  <si>
+    <t>Start with the feet slightly wider than hip-distance apart. Toes can rotate out just slightly to allow for a greater range of motion. -Grip the kettlebell with your right hand and extend the right arm over your head. Your right palm should face forward. -Extend the left arm down in front of your left thigh with the palm facing forward. In this position, your arms might look like two arms of a windmill. -Hinging at the hips, lower the upper body down and to the left side. Your left hand will stay facing forward while it slides down near the front of your left leg toward your foot. Keep the right arm steady and fully extended overhead. -In the lowest position (with the left hand close to the left foot) your torso will be tipped to the left but slightly rotated to the right. When done properly, you'll feel some weight shift into your right hip. -Reverse the movement, lifting the body while keeping a strong straight spine. Keep the weight steady and elevated over the right shoulder. -Return to the starting position and begin again.</t>
+  </si>
+  <si>
+    <t>Begin in a standing position with good posture. Shoulders should be relaxed and positioned over the hips. Knees should remain straight but soft (not locked or stiff). -Hold the kettlebell in front of the body, grasping the horns (the vertical sides of the handle). The handle should face down and the bottom or ball of the kettlebell faces up. -Begin by circling to the right. Carry the kettlebell around the right side of your head and let the kettlebell drop down behind the neck. Finish the circle by bringing it around the left side of your head back to the starting position. You will be touching your hair—you almost want to mess it up as you come around. -After you complete one full rotation, reverse direction. Begin by circling to the left and finish by coming around the right back to the starting position.</t>
+  </si>
+  <si>
+    <t>Before attempting a handstand push-up, set up a cushion (like an ab mat or a yoga mat) against the wall to protect your head and neck.  -Stand facing the wall. Bend down and place your hands six to 12 inches away from the wall, fingers spread and pressing into the ground. Kick up into a handstand. Kick hard enough so that you get up in one swoop, but not so hard that your heels bounce off the wall.  -Once you’re inverted, steady yourself by tucking your tailbone under, drawing your navel to your spine, tightening your abs, and squeezing your glutes. Your body should form one solid, straight line. -Bend your elbows to lower yourself to the mat beneath your head. Use control so you don’t slam your head into the ground. Even if you have a cushion, that would hurt. -Once the top of your head grazes the floor, press your body back up by extending your arms. Think of pressing into the floor as if you were pressing a barbell over your head. Keep your core tight and engaged to prevent your spine from overextending.  -At the top of the press, fully extend your arms (lock out your elbows) and reset to descend for another rep. Unless you're an advanced athlete, don't rush into the next rep. Make sure you re-engage your core first.</t>
+  </si>
+  <si>
+    <t>Start seated on the floor, knees bent, feet slightly wider than hip-distance apart. The toes can be turned out just slightly. The upper back (lower scapula) should be resting against the edge of the weight bench in the center of the bench. -Place the weight bar across the hips. -Squeeze the glutes and press the bar straight up until the hips are in line with the shoulders and the knees. The bench should be supporting the mid-scapula area. Keep the core tight and maintain a slight chin tuck with  -your focus down your body (a few inches above the bar). -Slowly lower the bar down until the hips are just a few inches off the floor. -Squeeze the glutes and lift again.</t>
+  </si>
+  <si>
+    <t>Place the dumbbells on the floor, positioned so that when you set up in a plank position, the dumbbells are roughly shoulder-distance apart and the handles of the dumbbells are parallel to one another. -Start on your hands and knees in a tabletop-like position, gripping one dumbbell with each hand. Your hands should be aligned beneath your shoulders and your knees under your hips. -Step your feet behind you to enter a full plank position, your body supported by your hands and the balls of your feet. Check your form here—your body should form a straight line from your heels to your head with your core engaged and tight. Position your feet so they're roughly hip-distance apart to offer more balance and support to the exercise. -Inhale and shift your weight slightly to your left side so more of your weight is supported by your left palm. Your body shouldn't twist—make sure both hips and shoulders remain square to the floor. -Squeeze your right shoulder blade toward your spine and draw the dumbbell held in your right hand toward your chest, bending your elbow as you draw the dumbbell toward you. Exhale as you lift the dumbbell. Check your form at the top of the movement—your hips and shoulders should still be squared to the floor, the dumbbell should be pulled all the way to your right chest/shoulder, and your right elbow should be pointing up and toward the back of the room. -Lower the dumbbell slowly to the floor, returning it to the starting position. -Shift your weight to the right side and repeat the exercise, this time drawing the left dumbbell to your left chest/shoulder. This completes one full repetition. -Complete the desired number of repetitions and exit the exercise by lowering your knees back to the floor before releasing the dumbbells and sitting up.</t>
+  </si>
+  <si>
+    <t>Stand tall with your feet roughly hip-distance apart. Hold a barbell in both hands directly in front of your thighs with your hands shoulder-distance apart (slightly wider than your thighs). -Start with a very slight bend in your knees. Roll your shoulders back, drawing your shoulder blades toward your spine to engage your upper back. Your shoulders should remain pulled back like this throughout the exercise. -Inhale and press your hips back. Continue pressing them back (like your hips are hinging), as your torso naturally begins to lean forward toward the floor. It's important to realize you're not tipping forward at the waist. The movement of your torso only happens as a result of your hips hinging, not because you're actively leaning forward. Check to make sure you still have perfect posture and your shoulders and back aren't rounding forward. -Keep the barbell close to your thighs (almost grazing the front of them) as you hinge forward from the hips. If there are several inches between your body and the barbell, roll your shoulders back and pull the barbell closer to your body. Your arms should hang naturally down (elbows extended), but they should remain engaged to keep the barbell close to you. -Stop hinging at your hips when you feel a stretch through your hamstrings. The barbell does not have to reach the floor—in fact, it's perfectly fine if you stop the movement when the barbell reaches roughly knee-height, depending on your personal flexibility. -Exhale and use your hamstrings and glutes to "pull" your torso back to standing as you actively press your hips forward. You should not use your back or core to pull yourself back to standing.Complete your set and replace the barbell carefully on the rack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Place the kettlebell on the ground between your feet. Stand with your feet slightly wider than hip-distance apart, your toes angled out slightly. Bend your knees just a little bit and check your posture—make sure your shoulders are rolled back so your ears are aligned with your shoulders, hips, knees, and ankles. Engage your abdominals, drawing your belly button back toward your spine -Keep your back completely straight (maintain your perfect posture) and press your hips back, tipping your torso forward as you reach your hands toward the kettlebell handle. You should create a crease at the front of your hip joint as you perform this hip-hinge movement. Make sure you don't start bending your knees to squat down to the kettlebell—if your knees start bending significantly, you'll lose the hip hinge. If you notice your knees bending, reset and work on pressing your hips back farther. -Grasp the kettlebell handle firmly with both hands. Roll your shoulders back slightly to make sure they remain engaged—this helps control the momentum of the swing while preventing a forward curve of the spine. Make sure your core is still engaged and take a breath in. -Exhale and in one powerful movement, squeeze your glutes and hamstrings as hard as you can to fully extend your hips as you reverse the hip hinge and rise to the upright, starting position. As your hips extend, allow the kettlebell to naturally swing forward from your shoulders as high as it will naturally swing. On your first swing or two, it may not swing all the way to shoulder-height, but as you build momentum, allow the kettlebell to swing to the point where it feels weightless for a split second, usually when it's almost parallel to the ground. Your torso should remain straight, your core, upper back, and shoulders all engaged, throughout this upward swing. -Allow the kettlebell to naturally start its pendulum swing back toward the floor, and as it does, press your hips back and perform the next hip hinge, so the kettlebell swings directly between your legs. Keep your neck aligned with your spine throughout the exercise. Exhale with every forward swing, inhale with every backward swing. -Continue the forward-and-backward kettlebell swings for time or repetitions, remembering to keep your torso straight and to power the movement with your hips and glutes. Don't exit the move suddenly by dropping the kettlebell or forcing your momentum to stop. Maintain proper swing form, but reduce the power you use with each swing until you can comfortably and safely return the kettlebell to the floor.</t>
+  </si>
+  <si>
+    <t>Use a low-inertia swing to get kettlebell moving. -Perform a vertical acceleration pull with hip and trap while pushing with the opposite foot. -Insert hand deep into the handle with thumb facing back. -Fixate (lockout) kettlebell overhead. -Deflect trunk back into hyperextension. -Pull hand back and change grip into the backswing.</t>
+  </si>
+  <si>
+    <t>Begin to lower the body into a deep squat with the weight descending down between the knees. Keep the spine long and the back tall and upright. You'll notice that the back stays almost completely vertical as you descend, unlike a traditional squat where the torso leans slightly forward. -Your hips stay under the bar (rather than floating behind the bar in a traditional squat) even as your glutes continue to lower down below knee level. You'll also notice that the knees extend further out in front and the ankles flex more than in a traditional squat. -Keep the heels on the ground and your weight centered over the middle of your feet as you continue to descend. Try not to shift forward into the balls of the feet or back into the heels. -At the lowest position your hamstrings will nearly touch the back of the calves. Keep elbows lifted at bar height (if possible) and chest upright to prevent the bar from rolling forward. -Reverse the squat in a slow, controlled manner with the hips and knees extending simultaneously. Continue lifting until the body is back at the starting position.</t>
+  </si>
+  <si>
+    <t>Kneel down on the floor, with a stability ball in front of you. You can use a mat to kneel on for extra cushioning. The ball should be within arms reach. -Put your hands in a loose fist and place them on the ball. Your Forearms will also rest on the ball. Make sure your elbows are bent 90 degrees. Keep your body in a straight line with your back flat. -Roll the ball forward with your hands as your arms and body straighten out. This motion needs to be slow and controlled. Keep your gaze looking straight ahead. -Extend out as far as you can go. Your chest will touch the ball. Hold this position for a few seconds. -Slowly reverse the movement by bending your elbows to roll the ball back to the starting position. Keep your core tight, so your hips don’t drop.</t>
+  </si>
+  <si>
+    <t>Choose a set of kettlebells or dumbbells of equal weight. Make sure to choose a weight that is heavy enough to create resistance, yet light enough that you can keep your form strict and posture upright. -Hold one kettlebell or dumbbell in each hand with a tight, firm grip. -Stand tall with your feet about shoulder-width apart and arms resting at your sides. -Begin the movement by engaging the core muscles, pulling your shoulder blades down and back, and making sure your posture is upright. -Take a step forward and begin walking while carrying a kettlebell or dumbbell in each hand. Be sure to keep your head up, shoulders back, and core muscles contracted the entire time. -Continue walking for a specified time or number of steps. To make the move more cardiovascular, increase your pace. You can also increase the number of steps or time based on your fitness level.</t>
+  </si>
+  <si>
+    <t>Start in a plank position, your hands slightly wider than shoulder-distance apart, but directly under your shoulders. Your body should form a straight line from heels to head. -Tighten your core and begin bending your elbows, so they angle backward at 45-degrees from your body as you lower your chest toward the floor. Inhale as you move through the lowering phase of the exercise. -Pick up your right foot and draw your right knee up and out, so your right knee reaches your elbow just as your chest hovers about an inch or two from the mat. -Reverse the movement, extending your elbows to press up to the plank position as you simultaneously extend your knee and return your right foot to the floor. Exhale as you press yourself back to the starting position. -Repeat to the opposite side, this time bringing your left knee to your left elbow. -When you complete a full set (aim for at least 8-10 pushups, alternating sides), place your knees on the ground and kneel before you move to standing.</t>
+  </si>
+  <si>
+    <t>Stand facing the bench, table, or the edge of a bed. -Place your hands on the edge of the bench just slightly wider than shoulder width. Your arms are straight but elbows are not locked. Align your feet so that your arms and body are completely straight. -Bend your elbows to slowly lower your chest to the edge of the bench while inhaling. Keep your body straight and rigid throughout the movement. -Push your body away from the bench until your elbows are extended, but not locked. Exhale as you push up. -Keep going with slow, steady repetitions. -</t>
+  </si>
+  <si>
+    <t>Start on your hands and knees, place your hands on the ground, about shoulder-width or a little wider. Be careful not to have them too wide or you will severely limit your range of motion on the descent. Carefully move your feet in position by extending your body, and propping your feet up on the bench, or step, one at a time. Realign your body so that it is in a straight line for shoulders to hips to toes, without sagging or arching at the hips. Reposition your hands if necessary, making sure your elbows are extended. -Lower your chest by bending your elbows. Maintain an aligned body position and use a smooth controlled motion. As you lower to the ground, you will need to look up slightly to allow full range of motion and avoid banging your nose or forehead on the ground. As soon as you lift your head, you will want to arch your back but resist this temptation. Arching your back during this move is not helpful and could set you up for an injury. -Push up until your elbows are straight, but not locked, returning to the start position. -Repeat as many reps as you can do without compromising your form. When you can't complete another high-quality repetition, stop.</t>
+  </si>
+  <si>
+    <t>Start standing with your feet about hip-width apart and your arms down by your sides.  -Bend down and place your palms on the floor in front of your feet. As soon as your palms make contact with the floor, jump your feet out behind you to assume the high-plank position. Keep your core tight and spine straight.  -Perform a push-up. Don’t let your hips sag and don’t let your back arch.  -After you finish the push-up, lift your focus then hop your feet outside of your hands for a squat. You should land flat-footed (not on your heels or toes), with your feet outside and slightly behind your hands.  -Stand up and jump, reaching your arms above your head.  -Land with your knees bent to absorb the impact. As your feet make contact with the ground, start lowering yourself to start another rep.</t>
+  </si>
+  <si>
+    <t>Lie on your back with your hands at your sides, knees bent, and feet flat on the floor under your knees. -Tighten your abdominal and buttock muscles by pushing your low back into the ground before you push up. -Raise your hips to create a straight line from your knees to shoulders. -Squeeze your core and pull your belly button back toward your spine. -Hold for 20 to 30 seconds, and then return to your starting position. -Complete at least 10 reps. -</t>
+  </si>
+  <si>
+    <t>Tighten your abdominal and buttock muscles. -Raise your hips up to create a straight line from your knees to shoulders. -Squeeze your core and try to pull your belly button back toward your spine. -Slowly raise and extend one leg while keeping your pelvis raised and level. -Hold. -Return to the starting position with knees bent. -Perform the lift with the other leg.</t>
+  </si>
+  <si>
+    <t>Stand with hands and feet shoulder-width apart. Grip the barbell palms facing down (pronated grip) while keeping your body straight and chest lifted. -Holding the upper arms stationary, exhale and lift the bar toward your shoulders bending at the elbows. -Continue to curl the bar toward your shoulders until you feel a complete biceps contraction. -Slowly lower the bar with control to the start position. -Repeat the exercise for a determined amount of reps and sets.</t>
+  </si>
+  <si>
+    <t>Lie on your back with your knees bent, feet on the floor. Take a moment to breathe deeply. Feel the weight of your shoulders on the mat and lightly press the backs of your arms into the mat. Here you initiate the open chest and shoulder stability you will need later in the exercise. -Bring your knees toward your chest and roll your hips up off the mat so that you are in an upside down ball position, resting on your shoulders. Cup the back of your pelvis with your hands and have your elbows directly under your hips. -Extend your hips and your legs so that you are on a long diagonal. The legs are together. Your lumbar area is not flexed, it is slightly extended making this is a little bit scary position. This is the part that makes this exercise more advanced and different than just supporting yourself upside down. You will be most successful if you think of lengthening and narrowing through your whole powerhouse. -Before moving on, make sure your chest is still open and your neck is long. Drop your shoulders if you need to, and get support from the backs of the upper arms. -Scissor your legs open, equally away from each other. The tendency is to bring the overhead leg back too far, and not take the risk of extending the leg that is moving away toward the floor. Work on that gently over time. -Pulse the legs twice in the open position and switch legs. Only the legs move. The pelvis stays absolutely stable. -Repeat the scissor action 6 times. -Bring your legs together overhead and roll down with control, as you would return from roll over. -The next exercise in the classical sequence is the bicycle exercise.</t>
+  </si>
+  <si>
+    <t>Lying on your side, check that your ankles, knees, hips, shoulders, and ears are aligned. -Move your legs slightly in front (forming this "banana shape" helps balance and protects your lower back). -Prop your head on your hand or stretch your bottom arm out to the side and rest your head on it. Your arm placement is just for balance; you should be engaging your core to lift your legs. -Pull your abdominal muscles in. -Inhale, allowing your body to elongate as the breath moves down the full length of your spine. -As you exhale, engage your abdominals and lift your legs a few inches off the mat. -Focus on keeping your inner legs together from your sit bones to your heels. -Inhale as you lower your legs back down to the mat, elongating your body in a controlled movement. -Aim for 5 to 8 reps, then turn to your other side and repeat.</t>
+  </si>
+  <si>
+    <t>Get in a "tabletop position" on your yoga mat with your knees positioned on the mat under your hips and your hands positioned on the mat under your shoulders, the stability ball behind your feet. Check your form here—your body should form a straight line from your tailbone to the crown of your head. Engage your abdominals, pulling your belly button toward your spine. -Place one leg at a time on top of the stability ball, so that the ball is positioned somewhere between the top of your feet (at the ankle joint) and the top of your shins (without interfering with your knees' ability to bend). The closer to your body the ball is, the easier it will be to maintain your balance. Also, adjust the width of your legs as needed. The closer your feet are together, the more challenging it will be to maintain your balance. Separate your legs slightly for greater stability. -Take a breath in when you feel sufficiently balanced, and check your form to make sure your core is engaged and your body is forming a straight line from heels to head. maintain your shoulders over your wrists for the entirety of the movement Press your feet and shins down into the stability ball and use your abs to help draw the ball toward your chest as you bend your knees and tuck your lower body up to your torso. Bring your knees as close to your chest as you comfortably can. Exhale as you draw your knees forward. -Hold for a second, then extend your knees, rolling the stability ball away from your torso to return to the full plank position. Exhale as you roll the ball away from you. -Complete a full set of repetitions, then carefully remove one leg at a time from the stability ball, bringing your knees back to the yoga mat. From the tabletop position, rise to kneel, then stand. -The slower you go, the more controlled and advanced this movement will be.</t>
+  </si>
+  <si>
+    <t>Take a plank position on the ball. The ball is positioned under your thighs. Your legs are extended straight behind you. Your shoulders are rotated back and down, away from your ears. Take a moment to find a place of true stability. Just like in plank on the floor, your abs are lifted and your body is in a long line. You will need to engage your legs and butt, hugging them to your midline for stability. -Walk yourself forward on your hands so that the ball is under your knees or the tops of your shins. You will need to play with this yourself to find the right distance to get to a pike. The further forward you go the higher your pike will be, but you will also be less stable so work up gradually. -Inhale. -Exhale and in one smooth, flowing motion, use your abdominal muscles to pull your hips up into a pike position (inverted V) where your hips are bent, legs straight, and arms extended to the floor. The ball will roll under your legs to be closer to your ankles. Keep your chest wide and your shoulders down so there is a lot of distance between shoulders and ears. Go slow and monitor your balance. Pressing your shins into the ball will help with stability. -Inhale: Use abdominal control to return to the plank position. -Repeat the pike three to six times -</t>
+  </si>
+  <si>
+    <t>Engage your core. Pull your abdominal muscles in, anchoring the pelvis and shoulders. Draw one knee in towards the chest and then extend it straight toward the ceiling. -Inhale and cross the extended leg up and over the body. It angles up toward the opposite shoulder and over the outstretched leg. -Exhale and lower the leg down towards the center line in a circling motion. Use control as you carry the open the leg out to the side and then sweep it around back to center at your starting position. -Do five to eight circles in this direction, then reverse, starting your circle by exhaling and then reaching your extended leg out to the side and then circling back toward and over the body. -Stretch, before switching legs, by climbing the hands up the outstretched leg to hold the ankle. Hold the position for three full breath cycles, gently pulling the leg closer and closer to you. Then repeat steps 1 to 4 on the opposite leg and finish with another stretch. -</t>
+  </si>
+  <si>
+    <t>The first pull is essentially a deadlift with extra power from your hips. Using the strength in your glutes and hamstrings, stand up with the barbell and thrust your hips forward. Squeeze your glutes hard, but don’t bounce the barbell off of your hips. The bar should stay close to your body, grazing or nearly grazing your hips as it moves upward. -The second pull can be compared to a barbell shrug or an explosive upright row for the traps. With your hips still fully extended, continue to drive the barbell upward by shrugging your shoulders up to your ears. You may also come onto your toes at this point. -To send the barbell above your head, pull your elbows up high (imagine pulling them to ear-level) and quickly flip them over so that your palms face forward. Lock out at your shoulders and elbows. At this point, it’s important to prevent the weight from continuing to move backward. If you don’t stop the weight by locking out your shoulders, the bar will continue its path, potentially injuring you or pulling you down with the weight. -Catch the barbell in a power stance (knees slightly bent, like a quarter-squat) or an overhead squat, whichever is more comfortable for you. Make sure your elbows and shoulders are stacked and locked out. With your core tight, step your feet to a natural standing position. Now the rep is complete. -Finally, you can bring the barbell back to the ground. Do so with control. Don’t just drop the barbell from above your head. First, bring the bar back to hip level. From there, set it down as if you are completing a deadlift. You can go back in for another rep after resetting your start position, or take a rest. -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As you come out of the bottom of the squat, squeeze your glutes to create a full hip extension. Begin pressing the barbell up as you do this. Power from the hip extension should create momentum that helps send the barbell upward.  -Continue pressing up until your arms fully extend above your head. Think about pressing into the barbell and activating your lats. Be careful not to over-extend your lower back—if you do this, you might need to lower the weight or practice engaging your core.  -After locking out at the top, lower the barbell back to the front-rack position. Use control so you don’t bump or bruise your collarbones.  -When the barbell once again touches your shoulders, you can descend into the front squat. Use the barbell as your cue: If you start to squat before the barbell touches your shoulders, you may get off-kilter and compromise your form. </t>
+  </si>
+  <si>
+    <t>Get into proper position by locking your arms in a fixed overhead position. You can do this on a bench, with your hand next to your head and gripping the sides of the bench, or you can grip a stable object overhead. Some people use kettlebells or a barbell, but using something fixed and stable is a bit more practical, and quite a bit safer. -Contract your torso and drive your legs up as if you are performing a reverse crunch, but keep your body rigid from your shoulders to toes, and avoid bending the hips. Point your toes to help maintain proper body alignment. -Once lifted, slowly lower your legs in a controlled motion without letting any part of your body touch the bench other than the upper back and shoulder. If you cave in, drop your hips, or arch your back, you don't have the strength yet and you should not continue the exercise. -Lower your body until it is hovering just over the bench. -Repeat as possible. Once you break form, you are done. -</t>
+  </si>
+  <si>
+    <t>Place both hands behind your body, palms facing down and fingers facing forward (towards your toes). -Lean back slightly placing some weight on your hands. The elbows will bend to allow you to shift back. Keep a long, tall spine with shoulders relaxed. -Bend the knees, bringing them off the floor and drawing them in towards your chest. -Keep your abdominal muscles engaged and back strong as you extend the legs to a straight position. You might lean back a little bit more as you extend the legs. -Bring your knees back into the chest and repeat the sequence.</t>
+  </si>
+  <si>
+    <t>Stand with your feet slightly more than shoulder-width apart, toes pointed slightly outward.  -Place the dowel vertically on your back. Grasp one end with your right hand in the natural curve of your neck and the other end with your left hand in the small of your back. Make sure the dowel is touching the back of your head, your upper back, and the area where your low back meets your butt (sacrum). -Shift your weight to your heels and push your hips back towards the wall behind you while you hinge forward at the hips. To get a better idea of how to do this, think about sticking your butt out behind you. As you hinge, the dowel should not lose contact with those three points. If it does, you know you’re doing the move incorrectly. -Lower your torso until it’s midway between vertical and parallel to the floor. Pause. Keep a slight bend in your knees during the downward and upward phase.  -Reverse the movement by contracting your glutes and pushing your hips forward and upward to return to the starting position.  -</t>
+  </si>
+  <si>
+    <t>Before adding any weight, stand or kneel on the levered platform, grasping the handles of the machine with straight elbows. -Without arching your back, see how far you can lower yourself without assistance. If you're able to bend your arms 90 degrees and push yourself back to a straight arm position, see how many more you can do. This is your baseline. -Now move the pin to the weight plate you think you need, and try again. If you select the right weight, you should be able to lower yourself smoothly and return to the starting position with moderate effort. -Start by doing at least eight to 10 reps, keeping your body centered and your core muscles taut. -After completing the first set of 8 to 10 reps, rest for 60 seconds before starting the next set and the set after that. If needed, lower the weight with each set to maintain proper form.</t>
+  </si>
+  <si>
+    <t>Assume a seated position. A bench will work best, but you can also use a chair with armrests. -Place your hand-held weights at your feet. You can use two dumbbells or one weighted barbell. Individual dumbbells are recommended for beginners so you can focus on one forearm at a time. -Grab the weights and hold them with your palms facing up. Be sure to grasp them tightly but comfortably. -Sit with proper posture to avoid slouching. Your legs should be about shoulder-width apart and your feet should be flat on the ground. Rest the back of your arms on your knees or the armrests of your chair.  -Adjust your arms so your wrists are hanging over the edge of your legs or armrests. -Slowly bend your wrist up and down to engage the forearms. Each movement should be slow and controlled to prevent the hand-held weights from straining your wrists.  -Exhale as you curl your wrists upward and inhale as you curl your wrists downward. Your forearms should be stationary during this exercise. Only your wrists should be moving. -Repeat the exercise up to 15 times per arm in a set. Take a short break in-between sets and resume the exercise when ready or switch arms. -To release the exercise, return to the starting position. Slowly lower the weights to the floor. -</t>
+  </si>
+  <si>
+    <t>Hold on to the chair back with both hands. -Lift one leg off the ground, slowly. -Maintain your balance while standing on one leg for 5 seconds. -Return to the starting position and repeat 5 times. Try to increase the time spent standing on one leg. -Perform with opposite leg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand in front of a step, box (plyo-boxes work great), platform, or BOSU ball that is at least 10 to 12 inches tall. Arms remain at your sides.  -Raise your right foot and place the ball of your foot on the platform. Depending on the equipment you use, your foot might be angled, rather than flat. But your left foot will remain flat on the ground. This is your starting position. -Push off the ground with your left foot and switch legs mid-air, with your left foot now touching the platform and your right foot on the ground.  -Arms can remain at your sides or alternate with your legs like you would do when running. -Repeat alternating toe taps slowly until you feel comfortable with the movement pattern, and your technique is correct.  -Speed up the pace and alternate between your left foot and right foot tapping the edge of the platform for the desired amount of time, typically 30 to 60 seconds. </t>
   </si>
 </sst>
 </file>
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1027,19 +1027,19 @@
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,19 +1047,19 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,19 +1067,19 @@
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,19 +1087,19 @@
         <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,19 +1107,19 @@
         <v>106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,19 +1127,19 @@
         <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,19 +1147,19 @@
         <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,19 +1167,19 @@
         <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1187,16 +1187,16 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,19 +1204,19 @@
         <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,19 +1224,19 @@
         <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,19 +1244,19 @@
         <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,19 +1264,19 @@
         <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,16 +1284,16 @@
         <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,19 +1301,19 @@
         <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,19 +1321,19 @@
         <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,19 +1341,19 @@
         <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,19 +1361,19 @@
         <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,19 +1381,19 @@
         <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,19 +1401,19 @@
         <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,19 +1421,19 @@
         <v>122</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,19 +1441,19 @@
         <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,19 +1461,19 @@
         <v>124</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,19 +1481,19 @@
         <v>125</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,19 +1501,19 @@
         <v>126</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,19 +1521,19 @@
         <v>127</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,19 +1541,19 @@
         <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,19 +1561,19 @@
         <v>129</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,19 +1581,19 @@
         <v>130</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,16 +1601,16 @@
         <v>131</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,16 +1618,16 @@
         <v>132</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,16 +1635,16 @@
         <v>133</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,19 +1652,19 @@
         <v>134</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,19 +1672,19 @@
         <v>135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1692,19 +1692,19 @@
         <v>136</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,19 +1712,19 @@
         <v>137</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1732,16 +1732,16 @@
         <v>138</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1749,19 +1749,19 @@
         <v>139</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="E40" s="3">
         <v>3</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,19 +1769,19 @@
         <v>140</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1789,16 +1789,16 @@
         <v>141</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,16 +1806,16 @@
         <v>142</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,19 +1823,19 @@
         <v>143</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,16 +1843,16 @@
         <v>144</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1860,16 +1860,16 @@
         <v>145</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,16 +1877,16 @@
         <v>146</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,19 +1894,19 @@
         <v>147</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="E48" s="3">
         <v>3</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,19 +1914,19 @@
         <v>148</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E49" s="3">
         <v>3</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,19 +1934,19 @@
         <v>149</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1954,19 +1954,19 @@
         <v>150</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1974,19 +1974,19 @@
         <v>151</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3">
         <v>3</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1994,19 +1994,19 @@
         <v>152</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2014,19 +2014,19 @@
         <v>153</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2034,19 +2034,19 @@
         <v>154</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2054,19 +2054,19 @@
         <v>155</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,19 +2074,19 @@
         <v>156</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,19 +2094,19 @@
         <v>157</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E58" s="3">
         <v>3</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,19 +2114,19 @@
         <v>158</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,16 +2134,16 @@
         <v>159</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2151,19 +2151,19 @@
         <v>160</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,19 +2171,19 @@
         <v>161</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E62" s="3">
         <v>3</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2191,16 +2191,16 @@
         <v>162</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,19 +2208,19 @@
         <v>163</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,19 +2228,19 @@
         <v>164</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2248,19 +2248,19 @@
         <v>165</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2268,19 +2268,19 @@
         <v>166</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2288,13 +2288,13 @@
         <v>167</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -2305,19 +2305,19 @@
         <v>168</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,19 +2325,19 @@
         <v>169</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,19 +2345,19 @@
         <v>170</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,16 +2365,16 @@
         <v>171</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,19 +2382,19 @@
         <v>172</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,19 +2402,19 @@
         <v>173</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3">
         <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,19 +2422,19 @@
         <v>174</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E75" s="3">
         <v>3</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2442,16 +2442,16 @@
         <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,19 +2459,19 @@
         <v>176</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,19 +2479,19 @@
         <v>177</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,19 +2499,19 @@
         <v>178</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2519,19 +2519,19 @@
         <v>179</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,19 +2539,19 @@
         <v>180</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E81" s="3">
         <v>1</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,13 +2559,13 @@
         <v>181</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
@@ -2576,13 +2576,13 @@
         <v>182</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E83" s="3">
         <v>2</v>
@@ -2593,13 +2593,13 @@
         <v>183</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="E84" s="3">
         <v>3</v>

--- a/datasheet_exer.xlsx
+++ b/datasheet_exer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjval Dahiya\Desktop\minor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC8219-66B3-4753-94C0-035CF3E714F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350E84D6-930B-4725-971B-159FE1A070A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="227">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t xml:space="preserve">EQUIPMENTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFFICULTY </t>
+  </si>
+  <si>
     <t>DIPS</t>
   </si>
   <si>
@@ -364,9 +370,6 @@
     <t>STANDING SIDE BENT</t>
   </si>
   <si>
-    <t xml:space="preserve">Back </t>
-  </si>
-  <si>
     <t>SIDE LEG LIFT</t>
   </si>
   <si>
@@ -442,10 +445,7 @@
     <t>Back,Chest</t>
   </si>
   <si>
-    <t>EQUIPMENTS</t>
-  </si>
-  <si>
-    <t>DIFFICULTY</t>
+    <t>Back,Abdominal</t>
   </si>
   <si>
     <t>EXERCISE_NAME</t>
@@ -652,6 +652,9 @@
     <t>Lie on your back with your knees bent, feet on the floor. Take a moment to breathe deeply. Feel the weight of your shoulders on the mat and lightly press the backs of your arms into the mat. Here you initiate the open chest and shoulder stability you will need later in the exercise. -Bring your knees toward your chest and roll your hips up off the mat so that you are in an upside down ball position, resting on your shoulders. Cup the back of your pelvis with your hands and have your elbows directly under your hips. -Extend your hips and your legs so that you are on a long diagonal. The legs are together. Your lumbar area is not flexed, it is slightly extended making this is a little bit scary position. This is the part that makes this exercise more advanced and different than just supporting yourself upside down. You will be most successful if you think of lengthening and narrowing through your whole powerhouse. -Before moving on, make sure your chest is still open and your neck is long. Drop your shoulders if you need to, and get support from the backs of the upper arms. -Scissor your legs open, equally away from each other. The tendency is to bring the overhead leg back too far, and not take the risk of extending the leg that is moving away toward the floor. Work on that gently over time. -Pulse the legs twice in the open position and switch legs. Only the legs move. The pelvis stays absolutely stable. -Repeat the scissor action 6 times. -Bring your legs together overhead and roll down with control, as you would return from roll over. -The next exercise in the classical sequence is the bicycle exercise.</t>
   </si>
   <si>
+    <t>Extend one arm up alongside your head. Let the other arm hang down at your side. Stretch your hand open and long, unless you are holding a dumbbell. The action of lifting your arm has an impact on your posture, so re-scan your body from top to bottom and be sure the low back is as long as possible. Crunching in your lumbar spine will cause your abdominals to distend and weaken your belly muscles. -Once you've lifted yourself up as high as possible, inhale to prepare, then reach your arm to the ceiling. Gradually arc up and over, exhaling as you reach. The key is to bend up, not down. Your entire body should lengthen upward as you bend without compressing or shortening any area of the torso. At the peak of your stretch, take another breath cycle, inhaling and exhaling to deepen the stretch. -From the deepest point, lengthen out even longer and rise back up to vertical gradually. Return upright to your initial position. -Bend one arm down and switch arms to begin on the other side. -Complete the first set by performing one rep to each side. Then complete 2 to 3 more additional sets for a total of 6 to 8 individual repetitions.</t>
+  </si>
+  <si>
     <t>Lying on your side, check that your ankles, knees, hips, shoulders, and ears are aligned. -Move your legs slightly in front (forming this "banana shape" helps balance and protects your lower back). -Prop your head on your hand or stretch your bottom arm out to the side and rest your head on it. Your arm placement is just for balance; you should be engaging your core to lift your legs. -Pull your abdominal muscles in. -Inhale, allowing your body to elongate as the breath moves down the full length of your spine. -As you exhale, engage your abdominals and lift your legs a few inches off the mat. -Focus on keeping your inner legs together from your sit bones to your heels. -Inhale as you lower your legs back down to the mat, elongating your body in a controlled movement. -Aim for 5 to 8 reps, then turn to your other side and repeat.</t>
   </si>
   <si>
@@ -689,6 +692,15 @@
   </si>
   <si>
     <t xml:space="preserve">Stand in front of a step, box (plyo-boxes work great), platform, or BOSU ball that is at least 10 to 12 inches tall. Arms remain at your sides.  -Raise your right foot and place the ball of your foot on the platform. Depending on the equipment you use, your foot might be angled, rather than flat. But your left foot will remain flat on the ground. This is your starting position. -Push off the ground with your left foot and switch legs mid-air, with your left foot now touching the platform and your right foot on the ground.  -Arms can remain at your sides or alternate with your legs like you would do when running. -Repeat alternating toe taps slowly until you feel comfortable with the movement pattern, and your technique is correct.  -Speed up the pace and alternate between your left foot and right foot tapping the edge of the platform for the desired amount of time, typically 30 to 60 seconds. </t>
+  </si>
+  <si>
+    <t>Kneel down onto your yoga mat or soft surface. Sit on your knees with your feet relaxed. Do not place the ball of the foot onto the ground. -Cross your big toes so that your feet create a support for your bottom to rest on. -Place your hands in front of you and on your knees. Your arms should be relaxed instead of tense. You can face your palms up or down depending on what feels comfortable to you. Pull the hands into a praying position to encourage the flow of energy. -Actively straighten out your spine so that your back is perpendicular to the floor. Your back should not be rounded. Pull your shoulders back and tighten your core. Pull your navel into your spine. -As you set your gaze forward, engage your neck to support your head. Your head should not hang down. -Focus on your breathing. Take deep breaths in and release them out slowly. As you inhale and exhale, your chest will expand and collapse. Continue to keep your back straight rather than slouching in as your breathing tugs at your posture. -Close your eyes and bring your focus to your inner world. -Try to stay in this position for 1-2 minutes.If meditating, continue for 5-10 minutes or as long as needed. -</t>
+  </si>
+  <si>
+    <t>Kneel with body upright and hips stacked over the knees. Take padding (a blanket or fold your mat so it is double thickness) under your knees if they are sensitive. -Draw your hands up the side of your body until your palms reach the sides of your rib cage. Let your thumbs rest on the back of the ribs as the other four fingers wrap around the sides and fronts of the rib cage with elbows pointing out. With this grip, use your hands to lift the rib cage up for support as you start to open your chest toward the ceiling. -Maintain the position of your chest as you reach your hands back one at a time to grasp your heels. If you need a little more height, tuck your toes under. Otherwise, the tops of the feet can be flat on the floor. -Bring your hips forward so that they stay over your knees. -If it feels good, let your head come back, opening your throat. If that doesn't work for your neck, you can keep the chin tucked instead. -Release by bringing your chin toward your chest and hands to your hips. Firm your abs and support your lower back with your hands as you slowly bring your body to an upright kneeling position.</t>
+  </si>
+  <si>
+    <t>Come to lie on your back -Bend your knees, bringing the soles of your feet onto your mat close to the buttocks. Reach down with your fingertips and make sure that you can just graze your heels. The feet should be parallel and hips' distance apart. -Bend your elbows and bring the palms of your hands overhead, placing them underneath your shoulders with the fingertips pointing towards your feet. -Inhale and press down into your palms and your feet as you lift your shoulders and hips up off the floor. Do not press all the way up yet. -Bring the crown of your head to the mat, making sure not to put too much weight on the neck. Use your hands and feet for leverage. Pause here for a moment as you make sure that your elbows are staying parallel and not splaying out to the sides. -Straighten your arms as you lift your head off the floor. -Make sure to keep your feet parallel and knees in line with your feet. -Reach your chest towards the wall behind you. -Begin to straighten your legs. -To come down, tuck your chin into your chest and lower down slowly. -Rest, allowing the knees to knock together. -Try to do your backbends in sets of three. If it's too much to do three Wheels at first, you can mix in a Bridge or two. -</t>
   </si>
 </sst>
 </file>
@@ -966,9 +978,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
@@ -993,10 +1005,10 @@
         <v>143</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>144</v>
@@ -1007,13 +1019,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1027,13 +1039,13 @@
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1047,13 +1059,13 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1067,13 +1079,13 @@
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -1087,13 +1099,13 @@
         <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -1107,13 +1119,13 @@
         <v>106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -1127,13 +1139,13 @@
         <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
@@ -1147,13 +1159,13 @@
         <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
@@ -1167,13 +1179,13 @@
         <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -1187,10 +1199,10 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1204,13 +1216,13 @@
         <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1224,13 +1236,13 @@
         <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -1244,13 +1256,13 @@
         <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -1264,13 +1276,13 @@
         <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
@@ -1284,10 +1296,10 @@
         <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
@@ -1301,13 +1313,13 @@
         <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -1321,13 +1333,13 @@
         <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1341,13 +1353,13 @@
         <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -1361,13 +1373,13 @@
         <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1381,13 +1393,13 @@
         <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -1401,13 +1413,13 @@
         <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -1421,13 +1433,13 @@
         <v>122</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -1441,13 +1453,13 @@
         <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
@@ -1461,13 +1473,13 @@
         <v>124</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1481,13 +1493,13 @@
         <v>125</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -1501,13 +1513,13 @@
         <v>126</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1521,13 +1533,13 @@
         <v>127</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
@@ -1541,13 +1553,13 @@
         <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -1561,13 +1573,13 @@
         <v>129</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -1581,13 +1593,13 @@
         <v>130</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
@@ -1601,10 +1613,10 @@
         <v>131</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
@@ -1618,10 +1630,10 @@
         <v>132</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
@@ -1635,10 +1647,10 @@
         <v>133</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1652,13 +1664,13 @@
         <v>134</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -1672,13 +1684,13 @@
         <v>135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -1692,13 +1704,13 @@
         <v>136</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
@@ -1712,13 +1724,13 @@
         <v>137</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
@@ -1732,10 +1744,10 @@
         <v>138</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
@@ -1749,13 +1761,13 @@
         <v>139</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E40" s="3">
         <v>3</v>
@@ -1769,13 +1781,13 @@
         <v>140</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
@@ -1789,10 +1801,10 @@
         <v>141</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
@@ -1806,10 +1818,10 @@
         <v>142</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
@@ -1823,13 +1835,13 @@
         <v>143</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
@@ -1843,10 +1855,10 @@
         <v>144</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -1860,10 +1872,10 @@
         <v>145</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -1877,10 +1889,10 @@
         <v>146</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
@@ -1894,13 +1906,13 @@
         <v>147</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E48" s="3">
         <v>3</v>
@@ -1914,13 +1926,13 @@
         <v>148</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="3">
         <v>3</v>
@@ -1934,13 +1946,13 @@
         <v>149</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
@@ -1954,13 +1966,13 @@
         <v>150</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
@@ -1974,13 +1986,13 @@
         <v>151</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E52" s="3">
         <v>3</v>
@@ -1994,13 +2006,13 @@
         <v>152</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
@@ -2014,13 +2026,13 @@
         <v>153</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
@@ -2034,13 +2046,13 @@
         <v>154</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
@@ -2054,13 +2066,13 @@
         <v>155</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
@@ -2074,13 +2086,13 @@
         <v>156</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
@@ -2094,13 +2106,13 @@
         <v>157</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="3">
         <v>3</v>
@@ -2114,13 +2126,13 @@
         <v>158</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
@@ -2134,10 +2146,10 @@
         <v>159</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
@@ -2151,13 +2163,13 @@
         <v>160</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
@@ -2171,13 +2183,13 @@
         <v>161</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E62" s="3">
         <v>3</v>
@@ -2191,10 +2203,10 @@
         <v>162</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
@@ -2208,13 +2220,13 @@
         <v>163</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
@@ -2228,13 +2240,13 @@
         <v>164</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
@@ -2248,13 +2260,13 @@
         <v>165</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -2268,13 +2280,13 @@
         <v>166</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -2288,16 +2300,19 @@
         <v>167</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,19 +2320,19 @@
         <v>168</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,19 +2340,19 @@
         <v>169</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2345,19 +2360,19 @@
         <v>170</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,16 +2380,16 @@
         <v>171</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,19 +2397,19 @@
         <v>172</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2402,19 +2417,19 @@
         <v>173</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E74" s="3">
         <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2422,19 +2437,19 @@
         <v>174</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E75" s="3">
         <v>3</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2442,16 +2457,16 @@
         <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,19 +2474,19 @@
         <v>176</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,19 +2494,19 @@
         <v>177</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,19 +2514,19 @@
         <v>178</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2519,19 +2534,19 @@
         <v>179</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,19 +2554,19 @@
         <v>180</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E81" s="3">
         <v>1</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,16 +2574,19 @@
         <v>181</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2576,16 +2594,19 @@
         <v>182</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E83" s="3">
         <v>2</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2593,68 +2614,20 @@
         <v>183</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E84" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasheet_exer.xlsx
+++ b/datasheet_exer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ujjval Dahiya\Desktop\minor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350E84D6-930B-4725-971B-159FE1A070A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35666A5-BB81-47B1-ADA8-EC4528469212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">EQUIPMENTS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIFFICULTY </t>
-  </si>
-  <si>
     <t>DIPS</t>
   </si>
   <si>
@@ -701,6 +695,12 @@
   </si>
   <si>
     <t>Come to lie on your back -Bend your knees, bringing the soles of your feet onto your mat close to the buttocks. Reach down with your fingertips and make sure that you can just graze your heels. The feet should be parallel and hips' distance apart. -Bend your elbows and bring the palms of your hands overhead, placing them underneath your shoulders with the fingertips pointing towards your feet. -Inhale and press down into your palms and your feet as you lift your shoulders and hips up off the floor. Do not press all the way up yet. -Bring the crown of your head to the mat, making sure not to put too much weight on the neck. Use your hands and feet for leverage. Pause here for a moment as you make sure that your elbows are staying parallel and not splaying out to the sides. -Straighten your arms as you lift your head off the floor. -Make sure to keep your feet parallel and knees in line with your feet. -Reach your chest towards the wall behind you. -Begin to straighten your legs. -To come down, tuck your chin into your chest and lower down slowly. -Rest, allowing the knees to knock together. -Try to do your backbends in sets of three. If it's too much to do three Wheels at first, you can mix in a Bridge or two. -</t>
+  </si>
+  <si>
+    <t>EQUIPMENTS</t>
+  </si>
+  <si>
+    <t>DIFFICULTY</t>
   </si>
 </sst>
 </file>
@@ -980,9 +980,9 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -999,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,19 +1019,19 @@
         <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,19 +1039,19 @@
         <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,19 +1059,19 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,19 +1079,19 @@
         <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,19 +1099,19 @@
         <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1119,19 +1119,19 @@
         <v>106</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,19 +1139,19 @@
         <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,19 +1159,19 @@
         <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,19 +1179,19 @@
         <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,16 +1199,16 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,19 +1216,19 @@
         <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,19 +1236,19 @@
         <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1256,19 +1256,19 @@
         <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1276,19 +1276,19 @@
         <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1296,16 +1296,16 @@
         <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,19 +1313,19 @@
         <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,19 +1333,19 @@
         <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,19 +1353,19 @@
         <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,19 +1373,19 @@
         <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" s="3">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1393,19 +1393,19 @@
         <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,19 +1413,19 @@
         <v>121</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1433,19 +1433,19 @@
         <v>122</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,19 +1453,19 @@
         <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3">
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,19 +1473,19 @@
         <v>124</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,19 +1493,19 @@
         <v>125</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,19 +1513,19 @@
         <v>126</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,19 +1533,19 @@
         <v>127</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,19 +1553,19 @@
         <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1573,19 +1573,19 @@
         <v>129</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1593,19 +1593,19 @@
         <v>130</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3">
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,16 +1613,16 @@
         <v>131</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1630,16 +1630,16 @@
         <v>132</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1647,16 +1647,16 @@
         <v>133</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,19 +1664,19 @@
         <v>134</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,19 +1684,19 @@
         <v>135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1704,19 +1704,19 @@
         <v>136</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" s="3">
         <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,19 +1724,19 @@
         <v>137</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,16 +1744,16 @@
         <v>138</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,19 +1761,19 @@
         <v>139</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E40" s="3">
         <v>3</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,19 +1781,19 @@
         <v>140</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,16 +1801,16 @@
         <v>141</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1818,16 +1818,16 @@
         <v>142</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,19 +1835,19 @@
         <v>143</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,16 +1855,16 @@
         <v>144</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,16 +1872,16 @@
         <v>145</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1889,16 +1889,16 @@
         <v>146</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,19 +1906,19 @@
         <v>147</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E48" s="3">
         <v>3</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,19 +1926,19 @@
         <v>148</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="3">
         <v>3</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,19 +1946,19 @@
         <v>149</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" s="3">
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1966,19 +1966,19 @@
         <v>150</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,19 +1986,19 @@
         <v>151</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3">
         <v>3</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,19 +2006,19 @@
         <v>152</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2026,19 +2026,19 @@
         <v>153</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,19 +2046,19 @@
         <v>154</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E55" s="3">
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,19 +2066,19 @@
         <v>155</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2086,19 +2086,19 @@
         <v>156</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2106,19 +2106,19 @@
         <v>157</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E58" s="3">
         <v>3</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2126,19 +2126,19 @@
         <v>158</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E59" s="3">
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2146,16 +2146,16 @@
         <v>159</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E60" s="3">
         <v>1</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2163,19 +2163,19 @@
         <v>160</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E61" s="3">
         <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,19 +2183,19 @@
         <v>161</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E62" s="3">
         <v>3</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2203,16 +2203,16 @@
         <v>162</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E63" s="3">
         <v>3</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,19 +2220,19 @@
         <v>163</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E64" s="3">
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2240,19 +2240,19 @@
         <v>164</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,19 +2260,19 @@
         <v>165</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2280,19 +2280,19 @@
         <v>166</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2300,19 +2300,19 @@
         <v>167</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,19 +2320,19 @@
         <v>168</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,19 +2340,19 @@
         <v>169</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E70" s="3">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,19 +2360,19 @@
         <v>170</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E71" s="3">
         <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,16 +2380,16 @@
         <v>171</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,19 +2397,19 @@
         <v>172</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E73" s="3">
         <v>3</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,19 +2417,19 @@
         <v>173</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3">
         <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,19 +2437,19 @@
         <v>174</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E75" s="3">
         <v>3</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2457,16 +2457,16 @@
         <v>175</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E76" s="3">
         <v>3</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2474,19 +2474,19 @@
         <v>176</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E77" s="3">
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2494,19 +2494,19 @@
         <v>177</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E78" s="3">
         <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,19 +2514,19 @@
         <v>178</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="E79" s="3">
         <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2534,19 +2534,19 @@
         <v>179</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E80" s="3">
         <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2554,19 +2554,19 @@
         <v>180</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E81" s="3">
         <v>1</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2574,19 +2574,19 @@
         <v>181</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E82" s="3">
         <v>1</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,19 +2594,19 @@
         <v>182</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E83" s="3">
         <v>2</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2614,19 +2614,19 @@
         <v>183</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E84" s="3">
         <v>3</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
